--- a/files/Скрипты для товаров.xlsx
+++ b/files/Скрипты для товаров.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\python\Maldina_AI\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC555964-97B4-4777-AEEF-A8C489B316BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388353A5-D471-411E-9A9E-BCE7C0C59831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8364" yWindow="0" windowWidth="14652" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Скрипты для ВСЕХ товаров" sheetId="1" r:id="rId1"/>
@@ -3681,38 +3681,6 @@
     <t>Юлия. орбизы высыхают постепенно без воды, лучше их хранить в бутылке с водой, с закрытой крышкой. если орбизы высохли ли уменьшились в размере. просто снова их положите в теплую воду и вырастите до нужного размера перед стрельбой</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Здравствуйте) чем растворить орбизы ?) ретенок в раковину</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> засорил</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 🤪</t>
-    </r>
-  </si>
-  <si>
     <t>Здравствуйте. В этой ситуации лучше открутить сифон и вытряхнуть орбизы по-максимуму, иначе возможен засор. Также можно воспользоваться специальным средством для очистки труб от засоров.</t>
   </si>
   <si>
@@ -4453,6 +4421,38 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> есть у лампы?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Здравствуйте) чем растворить орбизы ?)  раковину</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> засорил</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 🤪</t>
     </r>
   </si>
 </sst>
@@ -5108,7 +5108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5187,9 +5187,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5216,9 +5213,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5234,20 +5228,8 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5303,7 +5285,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5400,14 +5381,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5417,9 +5391,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5643,13 +5614,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5704,6 +5668,76 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5926,13 +5960,13 @@
   </sheetPr>
   <dimension ref="A1:M1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A297" sqref="A297:XFD297"/>
+    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" style="97" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" style="90" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" customWidth="1"/>
     <col min="3" max="3" width="80.109375" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
@@ -5941,8 +5975,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.2">
-      <c r="A1" s="82"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -5953,432 +5987,432 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="46.8">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="232" t="s">
+      <c r="F2" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="243"/>
+      <c r="M2" s="243"/>
     </row>
     <row r="3" spans="1:13" ht="26.4">
-      <c r="A3" s="84"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="233"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="243"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="243"/>
     </row>
     <row r="4" spans="1:13" ht="184.8">
-      <c r="A4" s="84"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="233"/>
-      <c r="M4" s="233"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
     </row>
     <row r="5" spans="1:13" ht="39.6">
-      <c r="A5" s="84"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="233"/>
-      <c r="G5" s="233"/>
-      <c r="H5" s="233"/>
-      <c r="I5" s="233"/>
-      <c r="J5" s="233"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
-      <c r="M5" s="233"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="243"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="243"/>
     </row>
     <row r="6" spans="1:13" ht="52.8">
-      <c r="A6" s="84"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="233"/>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="233"/>
-      <c r="L6" s="233"/>
-      <c r="M6" s="233"/>
-    </row>
-    <row r="7" spans="1:13" s="167" customFormat="1" ht="93">
-      <c r="A7" s="162" t="s">
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="243"/>
+      <c r="I6" s="243"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="243"/>
+      <c r="L6" s="243"/>
+      <c r="M6" s="243"/>
+    </row>
+    <row r="7" spans="1:13" s="156" customFormat="1" ht="93">
+      <c r="A7" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="164" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="233"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="233"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="233"/>
-      <c r="K7" s="233"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="233"/>
-    </row>
-    <row r="8" spans="1:13" s="167" customFormat="1" ht="66">
-      <c r="A8" s="168" t="s">
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="243"/>
+      <c r="M7" s="243"/>
+    </row>
+    <row r="8" spans="1:13" s="156" customFormat="1" ht="66">
+      <c r="A8" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="165" t="s">
+      <c r="B8" s="152"/>
+      <c r="C8" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="233"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="233"/>
-      <c r="K8" s="233"/>
-      <c r="L8" s="233"/>
-      <c r="M8" s="233"/>
-    </row>
-    <row r="9" spans="1:13" s="139" customFormat="1" ht="53.4">
-      <c r="A9" s="136"/>
-      <c r="B9" s="140" t="s">
+      <c r="D8" s="154"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+    </row>
+    <row r="9" spans="1:13" s="128" customFormat="1" ht="53.4">
+      <c r="A9" s="125"/>
+      <c r="B9" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="F9" s="233"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="233"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="233"/>
+      <c r="D9" s="126"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="243"/>
+      <c r="M9" s="243"/>
     </row>
     <row r="10" spans="1:13" ht="13.2">
-      <c r="A10" s="84"/>
-      <c r="B10" s="57" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="51" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="233"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="243"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="243"/>
+      <c r="M10" s="243"/>
     </row>
     <row r="11" spans="1:13" ht="27">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="233"/>
-    </row>
-    <row r="12" spans="1:13" s="139" customFormat="1" ht="53.4">
-      <c r="A12" s="136" t="s">
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
+      <c r="J11" s="243"/>
+      <c r="K11" s="243"/>
+      <c r="L11" s="243"/>
+      <c r="M11" s="243"/>
+    </row>
+    <row r="12" spans="1:13" s="128" customFormat="1" ht="53.4">
+      <c r="A12" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="142" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="F12" s="233"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="233"/>
-      <c r="I12" s="233"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="233"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="233"/>
-    </row>
-    <row r="13" spans="1:13" s="139" customFormat="1" ht="40.200000000000003">
-      <c r="A13" s="136"/>
-      <c r="B13" s="143" t="s">
+      <c r="D12" s="126"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="243"/>
+      <c r="H12" s="243"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="243"/>
+      <c r="L12" s="243"/>
+      <c r="M12" s="243"/>
+    </row>
+    <row r="13" spans="1:13" s="128" customFormat="1" ht="40.200000000000003">
+      <c r="A13" s="125"/>
+      <c r="B13" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="137"/>
-      <c r="F13" s="233"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="233"/>
-      <c r="L13" s="233"/>
-      <c r="M13" s="233"/>
+      <c r="D13" s="126"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="243"/>
+      <c r="L13" s="243"/>
+      <c r="M13" s="243"/>
     </row>
     <row r="14" spans="1:13" ht="17.399999999999999">
-      <c r="A14" s="85"/>
-      <c r="B14" s="57"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="6"/>
       <c r="D14" s="2"/>
-      <c r="F14" s="233"/>
-      <c r="G14" s="233"/>
-      <c r="H14" s="233"/>
-      <c r="I14" s="233"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="233"/>
-      <c r="L14" s="233"/>
-      <c r="M14" s="233"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="243"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="243"/>
+      <c r="M14" s="243"/>
     </row>
     <row r="15" spans="1:13" ht="39.6">
-      <c r="A15" s="84"/>
-      <c r="B15" s="57" t="s">
+      <c r="A15" s="77"/>
+      <c r="B15" s="51" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="233"/>
-      <c r="L15" s="233"/>
-      <c r="M15" s="233"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="243"/>
+      <c r="J15" s="243"/>
+      <c r="K15" s="243"/>
+      <c r="L15" s="243"/>
+      <c r="M15" s="243"/>
     </row>
     <row r="16" spans="1:13" ht="26.4">
-      <c r="A16" s="84"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="233"/>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="233"/>
-      <c r="L16" s="233"/>
-      <c r="M16" s="233"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="243"/>
+      <c r="L16" s="243"/>
+      <c r="M16" s="243"/>
     </row>
     <row r="17" spans="1:13" ht="13.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="F17" s="233"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="233"/>
-      <c r="M17" s="233"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="243"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="243"/>
+      <c r="K17" s="243"/>
+      <c r="L17" s="243"/>
+      <c r="M17" s="243"/>
     </row>
     <row r="18" spans="1:13" ht="13.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="233"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="233"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="243"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="243"/>
+      <c r="M18" s="243"/>
     </row>
     <row r="19" spans="1:13" ht="26.4">
-      <c r="A19" s="84"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="F19" s="233"/>
-      <c r="G19" s="233"/>
-      <c r="H19" s="233"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="233"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="233"/>
-    </row>
-    <row r="20" spans="1:13" s="139" customFormat="1" ht="52.8">
-      <c r="A20" s="144"/>
-      <c r="B20" s="145" t="s">
+      <c r="F19" s="243"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="243"/>
+      <c r="I19" s="243"/>
+      <c r="J19" s="243"/>
+      <c r="K19" s="243"/>
+      <c r="L19" s="243"/>
+      <c r="M19" s="243"/>
+    </row>
+    <row r="20" spans="1:13" s="128" customFormat="1" ht="52.8">
+      <c r="A20" s="133"/>
+      <c r="B20" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="233"/>
-      <c r="H20" s="233"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="233"/>
-      <c r="M20" s="233"/>
-    </row>
-    <row r="21" spans="1:13" s="139" customFormat="1" ht="66">
-      <c r="A21" s="144"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="137" t="s">
+      <c r="D20" s="126"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="243"/>
+      <c r="I20" s="243"/>
+      <c r="J20" s="243"/>
+      <c r="K20" s="243"/>
+      <c r="L20" s="243"/>
+      <c r="M20" s="243"/>
+    </row>
+    <row r="21" spans="1:13" s="128" customFormat="1" ht="66">
+      <c r="A21" s="133"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="F21" s="233"/>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="233"/>
-      <c r="L21" s="233"/>
-      <c r="M21" s="233"/>
+      <c r="D21" s="126"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="243"/>
+      <c r="I21" s="243"/>
+      <c r="J21" s="243"/>
+      <c r="K21" s="243"/>
+      <c r="L21" s="243"/>
+      <c r="M21" s="243"/>
     </row>
     <row r="22" spans="1:13" ht="26.4">
-      <c r="A22" s="84"/>
-      <c r="B22" s="59" t="s">
+      <c r="A22" s="77"/>
+      <c r="B22" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="F22" s="233"/>
-      <c r="G22" s="233"/>
-      <c r="H22" s="233"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="233"/>
-      <c r="K22" s="233"/>
-      <c r="L22" s="233"/>
-      <c r="M22" s="233"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="243"/>
+      <c r="H22" s="243"/>
+      <c r="I22" s="243"/>
+      <c r="J22" s="243"/>
+      <c r="K22" s="243"/>
+      <c r="L22" s="243"/>
+      <c r="M22" s="243"/>
     </row>
     <row r="23" spans="1:13" ht="39.6">
-      <c r="A23" s="84"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="233"/>
-      <c r="K23" s="233"/>
-      <c r="L23" s="233"/>
-      <c r="M23" s="233"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="243"/>
+      <c r="I23" s="243"/>
+      <c r="J23" s="243"/>
+      <c r="K23" s="243"/>
+      <c r="L23" s="243"/>
+      <c r="M23" s="243"/>
     </row>
     <row r="24" spans="1:13" ht="26.4">
-      <c r="A24" s="84"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="F24" s="233"/>
-      <c r="G24" s="233"/>
-      <c r="H24" s="233"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="233"/>
-      <c r="L24" s="233"/>
-      <c r="M24" s="233"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="243"/>
+      <c r="H24" s="243"/>
+      <c r="I24" s="243"/>
+      <c r="J24" s="243"/>
+      <c r="K24" s="243"/>
+      <c r="L24" s="243"/>
+      <c r="M24" s="243"/>
     </row>
     <row r="25" spans="1:13" ht="39.6">
-      <c r="A25" s="84"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="233"/>
-      <c r="H25" s="233"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="233"/>
-      <c r="L25" s="233"/>
-      <c r="M25" s="233"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="243"/>
+      <c r="H25" s="243"/>
+      <c r="I25" s="243"/>
+      <c r="J25" s="243"/>
+      <c r="K25" s="243"/>
+      <c r="L25" s="243"/>
+      <c r="M25" s="243"/>
     </row>
     <row r="26" spans="1:13" ht="66">
-      <c r="A26" s="84"/>
-      <c r="B26" s="59" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="53" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -6387,38 +6421,38 @@
       <c r="D26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-    </row>
-    <row r="27" spans="1:13" s="139" customFormat="1" ht="106.2">
-      <c r="A27" s="136" t="s">
+      <c r="F26" s="243"/>
+      <c r="G26" s="243"/>
+      <c r="H26" s="243"/>
+      <c r="I26" s="243"/>
+      <c r="J26" s="243"/>
+      <c r="K26" s="243"/>
+      <c r="L26" s="243"/>
+      <c r="M26" s="243"/>
+    </row>
+    <row r="27" spans="1:13" s="128" customFormat="1" ht="106.2">
+      <c r="A27" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="147"/>
-      <c r="C27" s="137" t="s">
-        <v>705</v>
-      </c>
-      <c r="D27" s="137"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="126" t="s">
+        <v>704</v>
+      </c>
+      <c r="D27" s="126"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
     </row>
     <row r="28" spans="1:13" ht="40.200000000000003">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="53" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -6434,36 +6468,36 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" s="167" customFormat="1" ht="39.6">
-      <c r="A29" s="169" t="s">
+    <row r="29" spans="1:13" s="156" customFormat="1" ht="39.6">
+      <c r="A29" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="170"/>
-      <c r="C29" s="165" t="s">
+      <c r="B29" s="159"/>
+      <c r="C29" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="165"/>
-      <c r="F29" s="171"/>
+      <c r="D29" s="154"/>
+      <c r="F29" s="160"/>
     </row>
     <row r="30" spans="1:13" ht="22.8">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="54"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="22.8">
-      <c r="A31" s="88"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="26.4">
-      <c r="A32" s="86"/>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="79"/>
+      <c r="B32" s="52" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -6472,35 +6506,35 @@
       <c r="D32" s="2"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:8" s="167" customFormat="1" ht="26.4">
-      <c r="A33" s="168" t="s">
+    <row r="33" spans="1:8" s="156" customFormat="1" ht="26.4">
+      <c r="A33" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="172"/>
-      <c r="C33" s="165" t="s">
+      <c r="B33" s="161"/>
+      <c r="C33" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="165"/>
-      <c r="F33" s="171"/>
-    </row>
-    <row r="34" spans="1:8" s="167" customFormat="1" ht="27">
-      <c r="A34" s="162" t="s">
+      <c r="D33" s="154"/>
+      <c r="F33" s="160"/>
+    </row>
+    <row r="34" spans="1:8" s="156" customFormat="1" ht="27">
+      <c r="A34" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="172" t="s">
+      <c r="B34" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="165" t="s">
+      <c r="C34" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="165"/>
-      <c r="F34" s="171"/>
+      <c r="D34" s="154"/>
+      <c r="F34" s="160"/>
     </row>
     <row r="35" spans="1:8" ht="79.2">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
@@ -6509,42 +6543,42 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="167" customFormat="1" ht="52.8">
-      <c r="A36" s="173" t="s">
+    <row r="36" spans="1:8" s="156" customFormat="1" ht="52.8">
+      <c r="A36" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="172"/>
-      <c r="C36" s="165" t="s">
+      <c r="B36" s="161"/>
+      <c r="C36" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="165"/>
-      <c r="F36" s="171"/>
-    </row>
-    <row r="37" spans="1:8" s="167" customFormat="1" ht="79.2">
-      <c r="A37" s="174" t="s">
+      <c r="D36" s="154"/>
+      <c r="F36" s="160"/>
+    </row>
+    <row r="37" spans="1:8" s="156" customFormat="1" ht="79.2">
+      <c r="A37" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="172"/>
-      <c r="C37" s="165" t="s">
+      <c r="B37" s="161"/>
+      <c r="C37" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="165"/>
-      <c r="F37" s="171"/>
+      <c r="D37" s="154"/>
+      <c r="F37" s="160"/>
     </row>
     <row r="38" spans="1:8" ht="13.2">
-      <c r="A38" s="82"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
-      <c r="F38" s="234" t="s">
+      <c r="F38" s="244" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
+      <c r="G38" s="243"/>
+      <c r="H38" s="243"/>
     </row>
     <row r="39" spans="1:8" ht="52.8">
-      <c r="A39" s="82"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="75"/>
+      <c r="B39" s="54" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -6553,26 +6587,26 @@
       <c r="D39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="233"/>
-      <c r="G39" s="233"/>
-      <c r="H39" s="233"/>
+      <c r="F39" s="243"/>
+      <c r="G39" s="243"/>
+      <c r="H39" s="243"/>
     </row>
     <row r="40" spans="1:8" ht="26.4">
-      <c r="A40" s="82"/>
-      <c r="B40" s="54" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="48" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="F40" s="233"/>
-      <c r="G40" s="233"/>
-      <c r="H40" s="233"/>
+      <c r="F40" s="243"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="243"/>
     </row>
     <row r="41" spans="1:8" ht="26.4">
-      <c r="A41" s="82"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="75"/>
+      <c r="B41" s="48" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -6584,27 +6618,27 @@
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" ht="13.2">
-      <c r="A42" s="82"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:8" s="139" customFormat="1" ht="105.6">
-      <c r="A43" s="150"/>
-      <c r="B43" s="151" t="s">
+    <row r="43" spans="1:8" s="128" customFormat="1" ht="105.6">
+      <c r="A43" s="139"/>
+      <c r="B43" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="137" t="s">
+      <c r="C43" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="137"/>
-      <c r="F43" s="149"/>
+      <c r="D43" s="126"/>
+      <c r="F43" s="138"/>
     </row>
     <row r="44" spans="1:8" ht="13.2">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -6616,74 +6650,74 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="26.4">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="61"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="F45" s="234" t="s">
+      <c r="F45" s="244" t="s">
         <v>86</v>
       </c>
-      <c r="G45" s="233"/>
-      <c r="H45" s="233"/>
-    </row>
-    <row r="46" spans="1:8" s="167" customFormat="1" ht="158.4">
-      <c r="A46" s="175"/>
-      <c r="B46" s="176" t="s">
+      <c r="G45" s="243"/>
+      <c r="H45" s="243"/>
+    </row>
+    <row r="46" spans="1:8" s="156" customFormat="1" ht="158.4">
+      <c r="A46" s="164"/>
+      <c r="B46" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="165" t="s">
+      <c r="C46" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="165"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="233"/>
-      <c r="H46" s="233"/>
+      <c r="D46" s="154"/>
+      <c r="F46" s="243"/>
+      <c r="G46" s="243"/>
+      <c r="H46" s="243"/>
     </row>
     <row r="47" spans="1:8" ht="211.2">
-      <c r="A47" s="90"/>
-      <c r="B47" s="58" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="52" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="F47" s="233"/>
-      <c r="G47" s="233"/>
-      <c r="H47" s="233"/>
+      <c r="F47" s="243"/>
+      <c r="G47" s="243"/>
+      <c r="H47" s="243"/>
     </row>
     <row r="48" spans="1:8" ht="158.4">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="F48" s="233"/>
-      <c r="G48" s="233"/>
-      <c r="H48" s="233"/>
+      <c r="F48" s="243"/>
+      <c r="G48" s="243"/>
+      <c r="H48" s="243"/>
     </row>
     <row r="49" spans="1:8" ht="26.4">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="61"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:8" ht="171.6">
-      <c r="A50" s="91"/>
-      <c r="B50" s="60" t="s">
+      <c r="A50" s="84"/>
+      <c r="B50" s="54" t="s">
         <v>96</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -6692,37 +6726,37 @@
       <c r="D50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="234" t="s">
+      <c r="F50" s="244" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="233"/>
-      <c r="H50" s="233"/>
+      <c r="G50" s="243"/>
+      <c r="H50" s="243"/>
     </row>
     <row r="51" spans="1:8" ht="13.2">
-      <c r="A51" s="91"/>
-      <c r="B51" s="62"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="13"/>
       <c r="D51" s="2"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" s="167" customFormat="1" ht="52.8">
-      <c r="A52" s="177"/>
-      <c r="B52" s="178" t="s">
+    <row r="52" spans="1:8" s="156" customFormat="1" ht="52.8">
+      <c r="A52" s="166"/>
+      <c r="B52" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="179" t="s">
+      <c r="C52" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="165"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
+      <c r="D52" s="154"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="169"/>
     </row>
     <row r="53" spans="1:8" ht="79.8">
-      <c r="A53" s="91"/>
-      <c r="B53" s="63" t="s">
+      <c r="A53" s="84"/>
+      <c r="B53" s="57" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -6731,24 +6765,24 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="13.2">
-      <c r="A54" s="91"/>
-      <c r="B54" s="61"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="13.2">
-      <c r="A55" s="91"/>
-      <c r="B55" s="61"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="79.2">
-      <c r="A56" s="91"/>
-      <c r="B56" s="55" t="s">
+      <c r="A56" s="84"/>
+      <c r="B56" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -6760,14 +6794,14 @@
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:8" ht="13.2">
-      <c r="A57" s="91"/>
-      <c r="B57" s="61"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="66">
-      <c r="A58" s="91"/>
-      <c r="B58" s="58" t="s">
+      <c r="A58" s="84"/>
+      <c r="B58" s="52" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -6776,20 +6810,20 @@
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:8" ht="17.399999999999999">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="61"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="26.4">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="49">
         <v>112</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -6798,10 +6832,10 @@
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:8" ht="52.8">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="49" t="s">
         <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -6810,10 +6844,10 @@
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="66">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="49" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -6821,151 +6855,151 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" s="167" customFormat="1" ht="39.6">
-      <c r="A63" s="181" t="s">
+    <row r="63" spans="1:8" s="156" customFormat="1" ht="39.6">
+      <c r="A63" s="170" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="163"/>
-      <c r="C63" s="165" t="s">
+      <c r="B63" s="152"/>
+      <c r="C63" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="165"/>
+      <c r="D63" s="154"/>
     </row>
     <row r="64" spans="1:8" ht="13.2">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="55"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:5" s="167" customFormat="1" ht="26.4">
-      <c r="A65" s="181" t="s">
+    <row r="65" spans="1:5" s="156" customFormat="1" ht="26.4">
+      <c r="A65" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="B65" s="163"/>
-      <c r="C65" s="165" t="s">
+      <c r="B65" s="152"/>
+      <c r="C65" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="165"/>
+      <c r="D65" s="154"/>
     </row>
     <row r="66" spans="1:5" ht="13.2">
-      <c r="A66" s="94"/>
-      <c r="B66" s="55"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:5" s="167" customFormat="1" ht="52.8">
-      <c r="A67" s="182" t="s">
+    <row r="67" spans="1:5" s="156" customFormat="1" ht="52.8">
+      <c r="A67" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="163"/>
-      <c r="C67" s="165" t="s">
+      <c r="B67" s="152"/>
+      <c r="C67" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="165"/>
+      <c r="D67" s="154"/>
     </row>
     <row r="68" spans="1:5" ht="13.2">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="61"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:5" s="167" customFormat="1" ht="79.2">
-      <c r="A69" s="183" t="s">
+    <row r="69" spans="1:5" s="156" customFormat="1" ht="79.2">
+      <c r="A69" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="184"/>
-      <c r="C69" s="185" t="s">
+      <c r="B69" s="173"/>
+      <c r="C69" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="D69" s="165"/>
-    </row>
-    <row r="70" spans="1:5" s="139" customFormat="1" ht="39.6">
-      <c r="A70" s="152" t="s">
+      <c r="D69" s="154"/>
+    </row>
+    <row r="70" spans="1:5" s="128" customFormat="1" ht="39.6">
+      <c r="A70" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="153"/>
-      <c r="C70" s="137" t="s">
+      <c r="B70" s="142"/>
+      <c r="C70" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="D70" s="137"/>
+      <c r="D70" s="126"/>
     </row>
     <row r="71" spans="1:5" ht="13.2">
-      <c r="A71" s="91"/>
-      <c r="B71" s="61"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="79.2">
-      <c r="A72" s="96" t="s">
+      <c r="A72" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="61"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="13.2">
-      <c r="A73" s="91"/>
-      <c r="B73" s="61"/>
+      <c r="A73" s="84"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" s="167" customFormat="1" ht="26.4">
-      <c r="A74" s="173" t="s">
+    <row r="74" spans="1:5" s="156" customFormat="1" ht="26.4">
+      <c r="A74" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="184"/>
-      <c r="C74" s="165" t="s">
+      <c r="B74" s="173"/>
+      <c r="C74" s="154" t="s">
         <v>137</v>
       </c>
-      <c r="D74" s="165"/>
-    </row>
-    <row r="75" spans="1:5" s="167" customFormat="1" ht="26.4">
-      <c r="A75" s="186" t="s">
+      <c r="D74" s="154"/>
+    </row>
+    <row r="75" spans="1:5" s="156" customFormat="1" ht="26.4">
+      <c r="A75" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="184"/>
-      <c r="C75" s="187" t="s">
+      <c r="B75" s="173"/>
+      <c r="C75" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="D75" s="165" t="s">
+      <c r="D75" s="154" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13.2">
-      <c r="A76" s="91"/>
-      <c r="B76" s="61"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="52.8">
-      <c r="A77" s="91"/>
-      <c r="B77" s="61"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="13.2">
-      <c r="A78" s="91"/>
-      <c r="B78" s="61"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="12"/>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="26.4">
-      <c r="A79" s="90" t="s">
+      <c r="A79" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="58" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -6974,316 +7008,316 @@
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" s="167" customFormat="1" ht="26.4">
-      <c r="A80" s="188"/>
-      <c r="B80" s="189" t="s">
+    <row r="80" spans="1:5" s="156" customFormat="1" ht="26.4">
+      <c r="A80" s="177"/>
+      <c r="B80" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="190" t="s">
+      <c r="C80" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="D80" s="165" t="s">
+      <c r="D80" s="154" t="s">
         <v>146</v>
       </c>
-      <c r="E80" s="166"/>
-    </row>
-    <row r="81" spans="1:4" s="167" customFormat="1" ht="13.2">
-      <c r="A81" s="186" t="s">
+      <c r="E80" s="155"/>
+    </row>
+    <row r="81" spans="1:4" s="156" customFormat="1" ht="13.2">
+      <c r="A81" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="191" t="s">
+      <c r="B81" s="180" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="192" t="s">
+      <c r="C81" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="165"/>
-    </row>
-    <row r="82" spans="1:4" s="167" customFormat="1" ht="26.4">
-      <c r="A82" s="173" t="s">
+      <c r="D81" s="154"/>
+    </row>
+    <row r="82" spans="1:4" s="156" customFormat="1" ht="26.4">
+      <c r="A82" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="191"/>
-      <c r="C82" s="165" t="s">
+      <c r="B82" s="180"/>
+      <c r="C82" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="D82" s="165"/>
-    </row>
-    <row r="83" spans="1:4" s="167" customFormat="1" ht="13.2">
-      <c r="A83" s="186" t="s">
+      <c r="D82" s="154"/>
+    </row>
+    <row r="83" spans="1:4" s="156" customFormat="1" ht="13.2">
+      <c r="A83" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="B83" s="191"/>
-      <c r="C83" s="192" t="s">
+      <c r="B83" s="180"/>
+      <c r="C83" s="181" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="165"/>
+      <c r="D83" s="154"/>
     </row>
     <row r="84" spans="1:4" ht="13.2">
-      <c r="A84" s="82"/>
-      <c r="B84" s="65"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" ht="13.2">
-      <c r="A85" s="82"/>
-      <c r="B85" s="65"/>
+      <c r="A85" s="75"/>
+      <c r="B85" s="59"/>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" ht="13.2">
-      <c r="A86" s="91"/>
-      <c r="B86" s="61"/>
+      <c r="A86" s="84"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="12"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" s="167" customFormat="1" ht="13.2">
-      <c r="A87" s="186" t="s">
+    <row r="87" spans="1:4" s="156" customFormat="1" ht="13.2">
+      <c r="A87" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="184"/>
-      <c r="C87" s="192" t="s">
+      <c r="B87" s="173"/>
+      <c r="C87" s="181" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="165"/>
+      <c r="D87" s="154"/>
     </row>
     <row r="88" spans="1:4" ht="13.2">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="B88" s="61"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" s="167" customFormat="1" ht="171.6">
-      <c r="A89" s="193" t="s">
+    <row r="89" spans="1:4" s="156" customFormat="1" ht="171.6">
+      <c r="A89" s="182" t="s">
         <v>158</v>
       </c>
-      <c r="B89" s="184"/>
-      <c r="C89" s="165" t="s">
+      <c r="B89" s="173"/>
+      <c r="C89" s="154" t="s">
         <v>159</v>
       </c>
-      <c r="D89" s="165"/>
-    </row>
-    <row r="90" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A90" s="194" t="s">
+      <c r="D89" s="154"/>
+    </row>
+    <row r="90" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A90" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="B90" s="184"/>
-      <c r="C90" s="166" t="s">
+      <c r="B90" s="173"/>
+      <c r="C90" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="D90" s="165"/>
+      <c r="D90" s="154"/>
     </row>
     <row r="91" spans="1:4" ht="13.2">
-      <c r="B91" s="61"/>
+      <c r="B91" s="55"/>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4" ht="13.2">
-      <c r="B92" s="61"/>
+      <c r="B92" s="55"/>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" ht="13.2">
-      <c r="B93" s="61"/>
+      <c r="B93" s="55"/>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4" ht="13.2">
-      <c r="B94" s="61"/>
+      <c r="B94" s="55"/>
       <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" ht="13.2">
-      <c r="B95" s="61"/>
+      <c r="B95" s="55"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" s="139" customFormat="1" ht="26.4">
-      <c r="A96" s="154" t="s">
+    <row r="96" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A96" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="B96" s="153"/>
-      <c r="C96" s="142" t="s">
+      <c r="B96" s="142"/>
+      <c r="C96" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="D96" s="137" t="s">
+      <c r="D96" s="126" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13.2">
-      <c r="A97" s="82"/>
-      <c r="B97" s="61"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="4"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" s="139" customFormat="1" ht="343.2">
-      <c r="A98" s="155" t="s">
+    <row r="98" spans="1:4" s="128" customFormat="1" ht="343.2">
+      <c r="A98" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="B98" s="146" t="s">
+      <c r="B98" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="138" t="s">
+      <c r="C98" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="D98" s="137"/>
-    </row>
-    <row r="99" spans="1:4" s="167" customFormat="1" ht="356.4">
-      <c r="A99" s="195" t="s">
+      <c r="D98" s="126"/>
+    </row>
+    <row r="99" spans="1:4" s="156" customFormat="1" ht="356.4">
+      <c r="A99" s="184" t="s">
         <v>164</v>
       </c>
-      <c r="B99" s="196" t="s">
+      <c r="B99" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="C99" s="166" t="s">
+      <c r="C99" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="D99" s="165"/>
-    </row>
-    <row r="100" spans="1:4" s="167" customFormat="1" ht="369.6">
-      <c r="A100" s="195" t="s">
+      <c r="D99" s="154"/>
+    </row>
+    <row r="100" spans="1:4" s="156" customFormat="1" ht="369.6">
+      <c r="A100" s="184" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="196" t="s">
+      <c r="B100" s="185" t="s">
         <v>169</v>
       </c>
-      <c r="C100" s="166" t="s">
+      <c r="C100" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="D100" s="165"/>
-    </row>
-    <row r="101" spans="1:4" s="167" customFormat="1" ht="26.4">
-      <c r="A101" s="186" t="s">
+      <c r="D100" s="154"/>
+    </row>
+    <row r="101" spans="1:4" s="156" customFormat="1" ht="26.4">
+      <c r="A101" s="175" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="184"/>
-      <c r="C101" s="165" t="s">
+      <c r="B101" s="173"/>
+      <c r="C101" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="D101" s="165" t="s">
+      <c r="D101" s="154" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A102" s="186" t="s">
+    <row r="102" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A102" s="175" t="s">
         <v>174</v>
       </c>
-      <c r="B102" s="184"/>
-      <c r="C102" s="165" t="s">
+      <c r="B102" s="173"/>
+      <c r="C102" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="D102" s="165"/>
-    </row>
-    <row r="103" spans="1:4" s="167" customFormat="1" ht="26.4">
-      <c r="A103" s="186" t="s">
-        <v>706</v>
-      </c>
-      <c r="B103" s="170" t="s">
+      <c r="D102" s="154"/>
+    </row>
+    <row r="103" spans="1:4" s="156" customFormat="1" ht="26.4">
+      <c r="A103" s="175" t="s">
+        <v>705</v>
+      </c>
+      <c r="B103" s="159" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="192" t="s">
+      <c r="C103" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="D103" s="165"/>
-    </row>
-    <row r="104" spans="1:4" s="167" customFormat="1" ht="13.2">
-      <c r="A104" s="186" t="s">
+      <c r="D103" s="154"/>
+    </row>
+    <row r="104" spans="1:4" s="156" customFormat="1" ht="13.2">
+      <c r="A104" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="B104" s="184"/>
-      <c r="C104" s="197" t="s">
+      <c r="B104" s="173"/>
+      <c r="C104" s="186" t="s">
         <v>179</v>
       </c>
-      <c r="D104" s="165"/>
+      <c r="D104" s="154"/>
     </row>
     <row r="105" spans="1:4" ht="13.2">
-      <c r="A105" s="91"/>
-      <c r="B105" s="61"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="55"/>
       <c r="C105" s="12"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" s="167" customFormat="1" ht="13.2">
-      <c r="A106" s="186" t="s">
+    <row r="106" spans="1:4" s="156" customFormat="1" ht="13.2">
+      <c r="A106" s="175" t="s">
         <v>180</v>
       </c>
-      <c r="B106" s="184"/>
-      <c r="C106" s="198" t="s">
+      <c r="B106" s="173"/>
+      <c r="C106" s="187" t="s">
         <v>181</v>
       </c>
-      <c r="D106" s="165"/>
+      <c r="D106" s="154"/>
     </row>
     <row r="107" spans="1:4" ht="13.2">
-      <c r="B107" s="61"/>
+      <c r="B107" s="55"/>
       <c r="C107" s="12"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" s="167" customFormat="1" ht="13.2">
-      <c r="A108" s="199"/>
-      <c r="B108" s="200" t="s">
+    <row r="108" spans="1:4" s="156" customFormat="1" ht="13.2">
+      <c r="A108" s="188"/>
+      <c r="B108" s="189" t="s">
         <v>182</v>
       </c>
-      <c r="C108" s="192" t="s">
+      <c r="C108" s="181" t="s">
         <v>183</v>
       </c>
-      <c r="D108" s="165"/>
+      <c r="D108" s="154"/>
     </row>
     <row r="109" spans="1:4" ht="13.2">
-      <c r="B109" s="61"/>
+      <c r="B109" s="55"/>
       <c r="C109" s="12"/>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4" ht="13.2">
-      <c r="A110" s="108" t="s">
+      <c r="A110" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="B110" s="67"/>
+      <c r="B110" s="61"/>
       <c r="C110" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" s="139" customFormat="1" ht="13.2">
-      <c r="A111" s="156" t="s">
+    <row r="111" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A111" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="153"/>
-      <c r="C111" s="157" t="s">
+      <c r="B111" s="142"/>
+      <c r="C111" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="D111" s="137"/>
+      <c r="D111" s="126"/>
     </row>
     <row r="112" spans="1:4" ht="13.2">
-      <c r="A112" s="91"/>
-      <c r="B112" s="61"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="55"/>
       <c r="C112" s="12"/>
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="1:4" ht="13.2">
-      <c r="A113" s="82" t="s">
+      <c r="A113" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="61"/>
+      <c r="B113" s="55"/>
       <c r="C113" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="1:4" ht="13.2">
-      <c r="A114" s="91"/>
-      <c r="B114" s="61"/>
+      <c r="A114" s="84"/>
+      <c r="B114" s="55"/>
       <c r="C114" s="12"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" s="167" customFormat="1" ht="17.399999999999999">
-      <c r="A115" s="201" t="s">
+    <row r="115" spans="1:4" s="156" customFormat="1" ht="17.399999999999999">
+      <c r="A115" s="190" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="184"/>
-      <c r="C115" s="202"/>
-      <c r="D115" s="165"/>
+      <c r="B115" s="173"/>
+      <c r="C115" s="191"/>
+      <c r="D115" s="154"/>
     </row>
     <row r="116" spans="1:4" ht="303.60000000000002">
-      <c r="A116" s="101"/>
-      <c r="B116" s="68" t="s">
+      <c r="A116" s="94"/>
+      <c r="B116" s="62" t="s">
         <v>191</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -7292,10 +7326,10 @@
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" ht="26.4">
-      <c r="A117" s="101" t="s">
+      <c r="A117" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="B117" s="66" t="s">
+      <c r="B117" s="60" t="s">
         <v>194</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -7304,20 +7338,20 @@
       <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4" ht="26.4">
-      <c r="A118" s="102" t="s">
+      <c r="A118" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="B118" s="66"/>
+      <c r="B118" s="60"/>
       <c r="C118" s="6" t="s">
         <v>197</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" ht="330">
-      <c r="A119" s="103" t="s">
+      <c r="A119" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="B119" s="66"/>
+      <c r="B119" s="60"/>
       <c r="C119" s="21" t="s">
         <v>199</v>
       </c>
@@ -7325,125 +7359,125 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="139" customFormat="1" ht="52.8">
-      <c r="A120" s="158" t="s">
+    <row r="120" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A120" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="B120" s="159"/>
-      <c r="C120" s="160" t="s">
+      <c r="B120" s="148"/>
+      <c r="C120" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="D120" s="137"/>
-    </row>
-    <row r="121" spans="1:4" s="139" customFormat="1" ht="26.4">
-      <c r="A121" s="158" t="s">
-        <v>707</v>
-      </c>
-      <c r="B121" s="159"/>
-      <c r="C121" s="160" t="s">
+      <c r="D120" s="126"/>
+    </row>
+    <row r="121" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A121" s="147" t="s">
+        <v>706</v>
+      </c>
+      <c r="B121" s="148"/>
+      <c r="C121" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="D121" s="137"/>
+      <c r="D121" s="126"/>
     </row>
     <row r="122" spans="1:4" ht="13.2">
-      <c r="A122" s="86"/>
-      <c r="B122" s="66"/>
+      <c r="A122" s="79"/>
+      <c r="B122" s="60"/>
       <c r="C122" s="16"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A123" s="168" t="s">
+    <row r="123" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A123" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="B123" s="170" t="s">
+      <c r="B123" s="159" t="s">
         <v>205</v>
       </c>
-      <c r="C123" s="185" t="s">
+      <c r="C123" s="174" t="s">
         <v>206</v>
       </c>
-      <c r="D123" s="165"/>
+      <c r="D123" s="154"/>
     </row>
     <row r="124" spans="1:4" ht="13.2">
-      <c r="A124" s="86"/>
-      <c r="B124" s="66"/>
+      <c r="A124" s="79"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="16"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" s="167" customFormat="1" ht="66">
-      <c r="A125" s="168" t="s">
+    <row r="125" spans="1:4" s="156" customFormat="1" ht="66">
+      <c r="A125" s="157" t="s">
         <v>207</v>
       </c>
-      <c r="B125" s="200" t="s">
+      <c r="B125" s="189" t="s">
         <v>208</v>
       </c>
-      <c r="C125" s="185" t="s">
+      <c r="C125" s="174" t="s">
         <v>209</v>
       </c>
-      <c r="D125" s="165"/>
+      <c r="D125" s="154"/>
     </row>
     <row r="126" spans="1:4" ht="13.2">
-      <c r="A126" s="86" t="s">
-        <v>708</v>
-      </c>
-      <c r="B126" s="66"/>
+      <c r="A126" s="79" t="s">
+        <v>707</v>
+      </c>
+      <c r="B126" s="60"/>
       <c r="C126" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A127" s="168" t="s">
+    <row r="127" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A127" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="B127" s="200"/>
-      <c r="C127" s="185" t="s">
+      <c r="B127" s="189"/>
+      <c r="C127" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="D127" s="165"/>
-    </row>
-    <row r="128" spans="1:4" s="167" customFormat="1" ht="52.8">
-      <c r="A128" s="203" t="s">
+      <c r="D127" s="154"/>
+    </row>
+    <row r="128" spans="1:4" s="156" customFormat="1" ht="52.8">
+      <c r="A128" s="192" t="s">
+        <v>708</v>
+      </c>
+      <c r="B128" s="189"/>
+      <c r="C128" s="174" t="s">
+        <v>213</v>
+      </c>
+      <c r="D128" s="154"/>
+    </row>
+    <row r="129" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A129" s="193" t="s">
+        <v>214</v>
+      </c>
+      <c r="B129" s="189"/>
+      <c r="C129" s="174" t="s">
+        <v>215</v>
+      </c>
+      <c r="D129" s="154"/>
+    </row>
+    <row r="130" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A130" s="157" t="s">
         <v>709</v>
       </c>
-      <c r="B128" s="200"/>
-      <c r="C128" s="185" t="s">
-        <v>213</v>
-      </c>
-      <c r="D128" s="165"/>
-    </row>
-    <row r="129" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A129" s="204" t="s">
-        <v>214</v>
-      </c>
-      <c r="B129" s="200"/>
-      <c r="C129" s="185" t="s">
-        <v>215</v>
-      </c>
-      <c r="D129" s="165"/>
-    </row>
-    <row r="130" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A130" s="168" t="s">
-        <v>710</v>
-      </c>
-      <c r="B130" s="200"/>
-      <c r="C130" s="185" t="s">
+      <c r="B130" s="189"/>
+      <c r="C130" s="174" t="s">
         <v>216</v>
       </c>
-      <c r="D130" s="165"/>
-    </row>
-    <row r="131" spans="1:4" s="167" customFormat="1" ht="26.4">
-      <c r="A131" s="168" t="s">
+      <c r="D130" s="154"/>
+    </row>
+    <row r="131" spans="1:4" s="156" customFormat="1" ht="26.4">
+      <c r="A131" s="157" t="s">
         <v>217</v>
       </c>
-      <c r="B131" s="184"/>
-      <c r="C131" s="187" t="s">
+      <c r="B131" s="173"/>
+      <c r="C131" s="176" t="s">
         <v>218</v>
       </c>
-      <c r="D131" s="165"/>
+      <c r="D131" s="154"/>
     </row>
     <row r="132" spans="1:4" ht="40.200000000000003">
-      <c r="A132" s="85"/>
-      <c r="B132" s="54" t="s">
+      <c r="A132" s="78"/>
+      <c r="B132" s="48" t="s">
         <v>219</v>
       </c>
       <c r="C132" s="6" t="s">
@@ -7451,41 +7485,41 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A133" s="205" t="s">
-        <v>711</v>
-      </c>
-      <c r="B133" s="184"/>
-      <c r="C133" s="206" t="s">
+    <row r="133" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A133" s="194" t="s">
+        <v>710</v>
+      </c>
+      <c r="B133" s="173"/>
+      <c r="C133" s="195" t="s">
         <v>221</v>
       </c>
-      <c r="D133" s="165"/>
-    </row>
-    <row r="134" spans="1:4" s="139" customFormat="1" ht="118.8">
-      <c r="A134" s="161"/>
-      <c r="B134" s="147" t="s">
+      <c r="D133" s="154"/>
+    </row>
+    <row r="134" spans="1:4" s="128" customFormat="1" ht="118.8">
+      <c r="A134" s="150"/>
+      <c r="B134" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="C134" s="142" t="s">
+      <c r="C134" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="D134" s="137"/>
-    </row>
-    <row r="135" spans="1:4" s="167" customFormat="1" ht="79.2">
-      <c r="A135" s="205" t="s">
+      <c r="D134" s="126"/>
+    </row>
+    <row r="135" spans="1:4" s="156" customFormat="1" ht="79.2">
+      <c r="A135" s="194" t="s">
         <v>224</v>
       </c>
-      <c r="B135" s="207" t="s">
+      <c r="B135" s="196" t="s">
         <v>225</v>
       </c>
-      <c r="C135" s="208" t="s">
+      <c r="C135" s="197" t="s">
         <v>226</v>
       </c>
-      <c r="D135" s="165"/>
+      <c r="D135" s="154"/>
     </row>
     <row r="136" spans="1:4" ht="211.2">
-      <c r="A136" s="105"/>
-      <c r="B136" s="64" t="s">
+      <c r="A136" s="98"/>
+      <c r="B136" s="58" t="s">
         <v>227</v>
       </c>
       <c r="C136" s="23" t="s">
@@ -7495,29 +7529,29 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="167" customFormat="1" ht="13.2">
-      <c r="A137" s="205" t="s">
-        <v>712</v>
-      </c>
-      <c r="B137" s="209" t="s">
+    <row r="137" spans="1:4" s="156" customFormat="1" ht="13.2">
+      <c r="A137" s="194" t="s">
+        <v>711</v>
+      </c>
+      <c r="B137" s="198" t="s">
         <v>230</v>
       </c>
-      <c r="C137" s="210" t="s">
+      <c r="C137" s="199" t="s">
         <v>231</v>
       </c>
-      <c r="D137" s="165"/>
+      <c r="D137" s="154"/>
     </row>
     <row r="138" spans="1:4" ht="13.2">
-      <c r="A138" s="105"/>
-      <c r="B138" s="69"/>
+      <c r="A138" s="98"/>
+      <c r="B138" s="63"/>
       <c r="C138" s="6"/>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" ht="52.8">
-      <c r="A139" s="105" t="s">
+      <c r="A139" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="B139" s="69" t="s">
+      <c r="B139" s="63" t="s">
         <v>225</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -7526,10 +7560,10 @@
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" ht="39.6">
-      <c r="A140" s="98" t="s">
+      <c r="A140" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="B140" s="69" t="s">
+      <c r="B140" s="63" t="s">
         <v>235</v>
       </c>
       <c r="C140" s="6" t="s">
@@ -7538,10 +7572,10 @@
       <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4" ht="26.4">
-      <c r="A141" s="89" t="s">
+      <c r="A141" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="B141" s="60" t="s">
+      <c r="B141" s="54" t="s">
         <v>238</v>
       </c>
       <c r="C141" s="11" t="s">
@@ -7550,60 +7584,60 @@
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" ht="26.4">
-      <c r="A142" s="106" t="s">
+      <c r="A142" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="54" t="s">
         <v>238</v>
       </c>
       <c r="C142" s="24"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" s="167" customFormat="1" ht="52.8">
-      <c r="A143" s="211" t="s">
+    <row r="143" spans="1:4" s="156" customFormat="1" ht="52.8">
+      <c r="A143" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="B143" s="212" t="s">
+      <c r="B143" s="201" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="208" t="s">
+      <c r="C143" s="197" t="s">
         <v>243</v>
       </c>
-      <c r="D143" s="165"/>
-    </row>
-    <row r="144" spans="1:4" s="167" customFormat="1" ht="52.8">
-      <c r="A144" s="211" t="s">
+      <c r="D143" s="154"/>
+    </row>
+    <row r="144" spans="1:4" s="156" customFormat="1" ht="52.8">
+      <c r="A144" s="200" t="s">
         <v>244</v>
       </c>
-      <c r="B144" s="213" t="s">
+      <c r="B144" s="202" t="s">
         <v>245</v>
       </c>
-      <c r="C144" s="214" t="s">
+      <c r="C144" s="203" t="s">
         <v>246</v>
       </c>
-      <c r="D144" s="165"/>
+      <c r="D144" s="154"/>
     </row>
     <row r="145" spans="1:4" ht="13.2">
-      <c r="A145" s="89"/>
-      <c r="B145" s="60"/>
+      <c r="A145" s="82"/>
+      <c r="B145" s="54"/>
       <c r="C145" s="10"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A146" s="205" t="s">
+    <row r="146" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A146" s="194" t="s">
         <v>247</v>
       </c>
-      <c r="B146" s="184"/>
-      <c r="C146" s="198" t="s">
+      <c r="B146" s="173"/>
+      <c r="C146" s="187" t="s">
         <v>248</v>
       </c>
-      <c r="D146" s="165"/>
+      <c r="D146" s="154"/>
     </row>
     <row r="147" spans="1:4" ht="52.8">
-      <c r="A147" s="86" t="s">
+      <c r="A147" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="B147" s="61"/>
+      <c r="B147" s="55"/>
       <c r="C147" s="6" t="s">
         <v>250</v>
       </c>
@@ -7611,149 +7645,149 @@
         <v>251</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="167" customFormat="1" ht="52.8">
-      <c r="A148" s="168" t="s">
+    <row r="148" spans="1:4" s="156" customFormat="1" ht="52.8">
+      <c r="A148" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="B148" s="184"/>
-      <c r="C148" s="208" t="s">
+      <c r="B148" s="173"/>
+      <c r="C148" s="197" t="s">
         <v>253</v>
       </c>
-      <c r="D148" s="165"/>
-    </row>
-    <row r="149" spans="1:4" s="167" customFormat="1" ht="26.4">
-      <c r="A149" s="215" t="s">
+      <c r="D148" s="154"/>
+    </row>
+    <row r="149" spans="1:4" s="156" customFormat="1" ht="26.4">
+      <c r="A149" s="204" t="s">
         <v>254</v>
       </c>
-      <c r="B149" s="184"/>
-      <c r="C149" s="208" t="s">
+      <c r="B149" s="173"/>
+      <c r="C149" s="197" t="s">
         <v>255</v>
       </c>
-      <c r="D149" s="165"/>
-    </row>
-    <row r="150" spans="1:4" s="167" customFormat="1" ht="26.4">
-      <c r="A150" s="216" t="s">
+      <c r="D149" s="154"/>
+    </row>
+    <row r="150" spans="1:4" s="156" customFormat="1" ht="26.4">
+      <c r="A150" s="205" t="s">
         <v>256</v>
       </c>
-      <c r="B150" s="172" t="s">
+      <c r="B150" s="161" t="s">
         <v>257</v>
       </c>
-      <c r="C150" s="208" t="s">
+      <c r="C150" s="197" t="s">
         <v>258</v>
       </c>
-      <c r="D150" s="165"/>
-    </row>
-    <row r="151" spans="1:4" s="167" customFormat="1" ht="66">
-      <c r="A151" s="168" t="s">
+      <c r="D150" s="154"/>
+    </row>
+    <row r="151" spans="1:4" s="156" customFormat="1" ht="66">
+      <c r="A151" s="157" t="s">
         <v>259</v>
       </c>
-      <c r="B151" s="172"/>
-      <c r="C151" s="208" t="s">
+      <c r="B151" s="161"/>
+      <c r="C151" s="197" t="s">
         <v>260</v>
       </c>
-      <c r="D151" s="165"/>
-    </row>
-    <row r="152" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A152" s="168" t="s">
+      <c r="D151" s="154"/>
+    </row>
+    <row r="152" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A152" s="157" t="s">
         <v>261</v>
       </c>
-      <c r="B152" s="172" t="s">
+      <c r="B152" s="161" t="s">
         <v>262</v>
       </c>
-      <c r="C152" s="208" t="s">
+      <c r="C152" s="197" t="s">
         <v>263</v>
       </c>
-      <c r="D152" s="165"/>
-    </row>
-    <row r="153" spans="1:4" s="167" customFormat="1" ht="52.8">
-      <c r="A153" s="216" t="s">
+      <c r="D152" s="154"/>
+    </row>
+    <row r="153" spans="1:4" s="156" customFormat="1" ht="52.8">
+      <c r="A153" s="205" t="s">
         <v>264</v>
       </c>
-      <c r="B153" s="172" t="s">
+      <c r="B153" s="161" t="s">
         <v>265</v>
       </c>
-      <c r="C153" s="206" t="s">
+      <c r="C153" s="195" t="s">
         <v>266</v>
       </c>
-      <c r="D153" s="165"/>
+      <c r="D153" s="154"/>
     </row>
     <row r="154" spans="1:4" ht="52.8">
-      <c r="A154" s="100" t="s">
+      <c r="A154" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="B154" s="67"/>
+      <c r="B154" s="61"/>
       <c r="C154" s="25" t="s">
         <v>268</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155" spans="1:4" ht="52.8">
-      <c r="A155" s="100"/>
-      <c r="B155" s="67"/>
+      <c r="A155" s="93"/>
+      <c r="B155" s="61"/>
       <c r="C155" s="26" t="s">
         <v>269</v>
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" s="167" customFormat="1" ht="13.2">
-      <c r="A156" s="216" t="s">
-        <v>713</v>
-      </c>
-      <c r="B156" s="217"/>
-      <c r="C156" s="218" t="s">
+    <row r="156" spans="1:4" s="156" customFormat="1" ht="13.2">
+      <c r="A156" s="205" t="s">
+        <v>712</v>
+      </c>
+      <c r="B156" s="206"/>
+      <c r="C156" s="207" t="s">
         <v>270</v>
       </c>
-      <c r="D156" s="165"/>
-    </row>
-    <row r="157" spans="1:4" s="167" customFormat="1" ht="66">
-      <c r="A157" s="216" t="s">
+      <c r="D156" s="154"/>
+    </row>
+    <row r="157" spans="1:4" s="156" customFormat="1" ht="66">
+      <c r="A157" s="205" t="s">
         <v>271</v>
       </c>
-      <c r="B157" s="184"/>
-      <c r="C157" s="208" t="s">
+      <c r="B157" s="173"/>
+      <c r="C157" s="197" t="s">
         <v>272</v>
       </c>
-      <c r="D157" s="165"/>
+      <c r="D157" s="154"/>
     </row>
     <row r="158" spans="1:4" ht="13.2">
-      <c r="A158" s="107"/>
-      <c r="B158" s="61"/>
+      <c r="A158" s="100"/>
+      <c r="B158" s="55"/>
       <c r="C158" s="6"/>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" ht="13.2">
-      <c r="A159" s="107"/>
-      <c r="B159" s="61"/>
+      <c r="A159" s="100"/>
+      <c r="B159" s="55"/>
       <c r="C159" s="6"/>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" ht="13.2">
-      <c r="A160" s="107"/>
-      <c r="B160" s="61"/>
+      <c r="A160" s="100"/>
+      <c r="B160" s="55"/>
       <c r="C160" s="6"/>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" ht="13.2">
-      <c r="A161" s="107"/>
-      <c r="B161" s="61"/>
+      <c r="A161" s="100"/>
+      <c r="B161" s="55"/>
       <c r="C161" s="6"/>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A162" s="219" t="s">
+    <row r="162" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A162" s="208" t="s">
         <v>273</v>
       </c>
-      <c r="B162" s="217"/>
-      <c r="C162" s="220" t="s">
+      <c r="B162" s="206"/>
+      <c r="C162" s="209" t="s">
         <v>274</v>
       </c>
-      <c r="D162" s="165"/>
+      <c r="D162" s="154"/>
     </row>
     <row r="163" spans="1:4" ht="250.8">
-      <c r="A163" s="105" t="s">
+      <c r="A163" s="98" t="s">
         <v>275</v>
       </c>
-      <c r="B163" s="60"/>
+      <c r="B163" s="54"/>
       <c r="C163" s="2" t="s">
         <v>276</v>
       </c>
@@ -7761,105 +7795,105 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="167" customFormat="1" ht="26.4">
-      <c r="A164" s="168" t="s">
+    <row r="164" spans="1:4" s="156" customFormat="1" ht="26.4">
+      <c r="A164" s="157" t="s">
         <v>278</v>
       </c>
-      <c r="B164" s="184"/>
-      <c r="C164" s="208" t="s">
+      <c r="B164" s="173"/>
+      <c r="C164" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="D164" s="165"/>
-    </row>
-    <row r="165" spans="1:4" s="167" customFormat="1" ht="26.4">
-      <c r="A165" s="168" t="s">
+      <c r="D164" s="154"/>
+    </row>
+    <row r="165" spans="1:4" s="156" customFormat="1" ht="26.4">
+      <c r="A165" s="157" t="s">
         <v>280</v>
       </c>
-      <c r="B165" s="184"/>
-      <c r="C165" s="208" t="s">
+      <c r="B165" s="173"/>
+      <c r="C165" s="197" t="s">
         <v>281</v>
       </c>
-      <c r="D165" s="165"/>
+      <c r="D165" s="154"/>
     </row>
     <row r="166" spans="1:4" ht="39.6">
-      <c r="A166" s="109" t="s">
+      <c r="A166" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="B166" s="67"/>
+      <c r="B166" s="61"/>
       <c r="C166" s="27" t="s">
         <v>283</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" ht="13.2">
-      <c r="A167" s="107"/>
-      <c r="B167" s="61"/>
+      <c r="A167" s="100"/>
+      <c r="B167" s="55"/>
       <c r="C167" s="6"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" ht="39.6">
-      <c r="A168" s="86" t="s">
+    <row r="168" spans="1:4" ht="52.8">
+      <c r="A168" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="B168" s="61"/>
+      <c r="B168" s="55"/>
       <c r="C168" s="6" t="s">
         <v>285</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:4" ht="13.2">
-      <c r="A169" s="107"/>
-      <c r="B169" s="61"/>
+      <c r="A169" s="100"/>
+      <c r="B169" s="55"/>
       <c r="C169" s="6"/>
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4" ht="13.2">
-      <c r="A170" s="95"/>
-      <c r="B170" s="67"/>
+      <c r="A170" s="88"/>
+      <c r="B170" s="61"/>
       <c r="C170" s="28"/>
       <c r="D170" s="2"/>
     </row>
     <row r="171" spans="1:4" ht="13.2">
-      <c r="A171" s="95"/>
-      <c r="B171" s="67"/>
+      <c r="A171" s="88"/>
+      <c r="B171" s="61"/>
       <c r="C171" s="28"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" s="167" customFormat="1" ht="92.4">
-      <c r="A172" s="215" t="s">
+    <row r="172" spans="1:4" s="156" customFormat="1" ht="92.4">
+      <c r="A172" s="204" t="s">
         <v>286</v>
       </c>
-      <c r="B172" s="217"/>
-      <c r="C172" s="221" t="s">
+      <c r="B172" s="206"/>
+      <c r="C172" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="D172" s="165"/>
+      <c r="D172" s="154"/>
     </row>
     <row r="173" spans="1:4" ht="250.8">
-      <c r="A173" s="110" t="s">
+      <c r="A173" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="B173" s="61"/>
+      <c r="B173" s="55"/>
       <c r="C173" s="6" t="s">
         <v>289</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4" ht="26.4">
-      <c r="A174" s="98" t="s">
+      <c r="A174" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="B174" s="61"/>
+      <c r="B174" s="55"/>
       <c r="C174" s="6" t="s">
         <v>291</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175" spans="1:4" ht="52.8">
-      <c r="A175" s="111" t="s">
+      <c r="A175" s="104" t="s">
         <v>292</v>
       </c>
-      <c r="B175" s="67" t="s">
+      <c r="B175" s="61" t="s">
         <v>293</v>
       </c>
       <c r="C175" s="29" t="s">
@@ -7868,26 +7902,26 @@
       <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4" ht="13.2">
-      <c r="A176" s="107"/>
-      <c r="B176" s="61"/>
+      <c r="A176" s="100"/>
+      <c r="B176" s="55"/>
       <c r="C176" s="6"/>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" s="167" customFormat="1" ht="250.8">
-      <c r="A177" s="195" t="s">
+    <row r="177" spans="1:4" s="156" customFormat="1" ht="250.8">
+      <c r="A177" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="B177" s="184"/>
-      <c r="C177" s="208" t="s">
+      <c r="B177" s="173"/>
+      <c r="C177" s="197" t="s">
         <v>296</v>
       </c>
-      <c r="D177" s="165"/>
+      <c r="D177" s="154"/>
     </row>
     <row r="178" spans="1:4" ht="171.6">
-      <c r="A178" s="99" t="s">
+      <c r="A178" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="B178" s="54" t="s">
+      <c r="B178" s="48" t="s">
         <v>298</v>
       </c>
       <c r="C178" s="6" t="s">
@@ -7896,8 +7930,8 @@
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4" ht="132">
-      <c r="A179" s="107"/>
-      <c r="B179" s="54" t="s">
+      <c r="A179" s="100"/>
+      <c r="B179" s="48" t="s">
         <v>300</v>
       </c>
       <c r="C179" s="6" t="s">
@@ -7906,8 +7940,8 @@
       <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" ht="132">
-      <c r="A180" s="107"/>
-      <c r="B180" s="64" t="s">
+      <c r="A180" s="100"/>
+      <c r="B180" s="58" t="s">
         <v>302</v>
       </c>
       <c r="C180" s="23" t="s">
@@ -7916,8 +7950,8 @@
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4" ht="66">
-      <c r="A181" s="107"/>
-      <c r="B181" s="64" t="s">
+      <c r="A181" s="100"/>
+      <c r="B181" s="58" t="s">
         <v>304</v>
       </c>
       <c r="C181" s="23" t="s">
@@ -7926,8 +7960,8 @@
       <c r="D181" s="2"/>
     </row>
     <row r="182" spans="1:4" ht="79.2">
-      <c r="A182" s="107"/>
-      <c r="B182" s="64" t="s">
+      <c r="A182" s="100"/>
+      <c r="B182" s="58" t="s">
         <v>306</v>
       </c>
       <c r="C182" s="23" t="s">
@@ -7936,122 +7970,122 @@
       <c r="D182" s="2"/>
     </row>
     <row r="183" spans="1:4" ht="105.6">
-      <c r="A183" s="86" t="s">
+      <c r="A183" s="79" t="s">
         <v>308</v>
       </c>
-      <c r="B183" s="64"/>
+      <c r="B183" s="58"/>
       <c r="C183" s="23" t="s">
         <v>309</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184" spans="1:4" ht="66">
-      <c r="A184" s="98" t="s">
+      <c r="A184" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="B184" s="64"/>
+      <c r="B184" s="58"/>
       <c r="C184" s="23" t="s">
         <v>311</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185" spans="1:4" ht="13.2">
-      <c r="A185" s="107"/>
-      <c r="B185" s="64"/>
+      <c r="A185" s="100"/>
+      <c r="B185" s="58"/>
       <c r="C185" s="23"/>
       <c r="D185" s="2"/>
     </row>
     <row r="186" spans="1:4" ht="13.2">
-      <c r="A186" s="107"/>
-      <c r="B186" s="64"/>
+      <c r="A186" s="100"/>
+      <c r="B186" s="58"/>
       <c r="C186" s="23"/>
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" ht="13.2">
-      <c r="A187" s="107"/>
-      <c r="B187" s="54"/>
+      <c r="A187" s="100"/>
+      <c r="B187" s="48"/>
       <c r="C187" s="23"/>
       <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4" ht="13.2">
-      <c r="A188" s="89"/>
-      <c r="B188" s="60"/>
+      <c r="A188" s="82"/>
+      <c r="B188" s="54"/>
       <c r="C188" s="11"/>
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" ht="13.2">
-      <c r="A189" s="98"/>
-      <c r="B189" s="54"/>
+      <c r="A189" s="91"/>
+      <c r="B189" s="48"/>
       <c r="C189" s="30"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" s="167" customFormat="1" ht="34.799999999999997">
-      <c r="A190" s="222" t="s">
+    <row r="190" spans="1:4" s="156" customFormat="1" ht="34.799999999999997">
+      <c r="A190" s="211" t="s">
         <v>312</v>
       </c>
-      <c r="B190" s="184"/>
-      <c r="C190" s="185" t="s">
+      <c r="B190" s="173"/>
+      <c r="C190" s="174" t="s">
         <v>313</v>
       </c>
-      <c r="D190" s="165"/>
-    </row>
-    <row r="191" spans="1:4" s="167" customFormat="1" ht="13.2">
-      <c r="A191" s="215" t="s">
+      <c r="D190" s="154"/>
+    </row>
+    <row r="191" spans="1:4" s="156" customFormat="1" ht="13.2">
+      <c r="A191" s="204" t="s">
         <v>314</v>
       </c>
-      <c r="B191" s="184"/>
-      <c r="C191" s="198" t="s">
+      <c r="B191" s="173"/>
+      <c r="C191" s="187" t="s">
         <v>315</v>
       </c>
-      <c r="D191" s="165"/>
-    </row>
-    <row r="192" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A192" s="223" t="s">
+      <c r="D191" s="154"/>
+    </row>
+    <row r="192" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A192" s="212" t="s">
         <v>316</v>
       </c>
-      <c r="B192" s="184"/>
-      <c r="C192" s="224" t="s">
+      <c r="B192" s="173"/>
+      <c r="C192" s="213" t="s">
         <v>317</v>
       </c>
-      <c r="D192" s="165"/>
-    </row>
-    <row r="193" spans="1:4" s="167" customFormat="1" ht="39.6">
-      <c r="A193" s="225" t="s">
+      <c r="D192" s="154"/>
+    </row>
+    <row r="193" spans="1:4" s="156" customFormat="1" ht="39.6">
+      <c r="A193" s="214" t="s">
         <v>318</v>
       </c>
-      <c r="B193" s="184"/>
-      <c r="C193" s="226" t="s">
+      <c r="B193" s="173"/>
+      <c r="C193" s="215" t="s">
         <v>319</v>
       </c>
-      <c r="D193" s="165"/>
+      <c r="D193" s="154"/>
     </row>
     <row r="194" spans="1:4" ht="15">
-      <c r="A194" s="82" t="s">
+      <c r="A194" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="B194" s="61"/>
+      <c r="B194" s="55"/>
       <c r="C194" s="24" t="s">
         <v>321</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195" spans="1:4" ht="13.2">
-      <c r="A195" s="113"/>
-      <c r="B195" s="61"/>
+      <c r="A195" s="106"/>
+      <c r="B195" s="55"/>
       <c r="C195" s="22"/>
       <c r="D195" s="2"/>
     </row>
     <row r="196" spans="1:4" ht="13.2">
-      <c r="A196" s="91"/>
-      <c r="B196" s="61"/>
+      <c r="A196" s="84"/>
+      <c r="B196" s="55"/>
       <c r="C196" s="12"/>
       <c r="D196" s="2"/>
     </row>
     <row r="197" spans="1:4" ht="316.8">
-      <c r="A197" s="82" t="s">
+      <c r="A197" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="B197" s="70" t="s">
+      <c r="B197" s="64" t="s">
         <v>323</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -8060,8 +8094,8 @@
       <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4" ht="171.6">
-      <c r="A198" s="95"/>
-      <c r="B198" s="71" t="s">
+      <c r="A198" s="88"/>
+      <c r="B198" s="65" t="s">
         <v>325</v>
       </c>
       <c r="C198" s="23" t="s">
@@ -8069,35 +8103,35 @@
       </c>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" spans="1:4" s="231" customFormat="1" ht="66">
-      <c r="A199" s="227" t="s">
+    <row r="199" spans="1:4" s="220" customFormat="1" ht="66">
+      <c r="A199" s="216" t="s">
         <v>327</v>
       </c>
-      <c r="B199" s="228" t="s">
+      <c r="B199" s="217" t="s">
         <v>265</v>
       </c>
-      <c r="C199" s="229" t="s">
+      <c r="C199" s="218" t="s">
         <v>328</v>
       </c>
-      <c r="D199" s="230"/>
+      <c r="D199" s="219"/>
     </row>
     <row r="200" spans="1:4" ht="184.8">
-      <c r="A200" s="114" t="s">
+      <c r="A200" s="107" t="s">
         <v>329</v>
       </c>
-      <c r="B200" s="72" t="s">
+      <c r="B200" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="C200" s="33" t="s">
+      <c r="C200" s="32" t="s">
         <v>331</v>
       </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" ht="264">
-      <c r="A201" s="95" t="s">
+      <c r="A201" s="88" t="s">
         <v>332</v>
       </c>
-      <c r="B201" s="55" t="s">
+      <c r="B201" s="49" t="s">
         <v>242</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -8106,10 +8140,10 @@
       <c r="D201" s="2"/>
     </row>
     <row r="202" spans="1:4" ht="27.6">
-      <c r="A202" s="82" t="s">
+      <c r="A202" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="B202" s="34" t="s">
+      <c r="B202" s="33" t="s">
         <v>335</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -8118,18 +8152,18 @@
       <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:4" ht="13.2">
-      <c r="A203" s="115" t="s">
+      <c r="A203" s="108" t="s">
         <v>337</v>
       </c>
-      <c r="B203" s="61"/>
+      <c r="B203" s="55"/>
       <c r="C203" s="12"/>
       <c r="D203" s="2"/>
     </row>
     <row r="204" spans="1:4" ht="26.4">
-      <c r="A204" s="89" t="s">
+      <c r="A204" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="B204" s="58" t="s">
+      <c r="B204" s="52" t="s">
         <v>339</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -8138,68 +8172,68 @@
       <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:4" ht="26.4">
-      <c r="A205" s="116" t="s">
+      <c r="A205" s="109" t="s">
         <v>341</v>
       </c>
-      <c r="B205" s="67"/>
-      <c r="C205" s="35" t="s">
+      <c r="B205" s="61"/>
+      <c r="C205" s="34" t="s">
         <v>342</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206" spans="1:4" ht="13.2">
-      <c r="A206" s="89"/>
-      <c r="B206" s="58"/>
+      <c r="A206" s="82"/>
+      <c r="B206" s="52"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
     <row r="207" spans="1:4" ht="13.2">
-      <c r="A207" s="89"/>
-      <c r="B207" s="58"/>
+      <c r="A207" s="82"/>
+      <c r="B207" s="52"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:4" ht="13.2">
-      <c r="A208" s="91"/>
-      <c r="B208" s="61"/>
+      <c r="A208" s="84"/>
+      <c r="B208" s="55"/>
       <c r="C208" s="12"/>
       <c r="D208" s="2"/>
     </row>
-    <row r="209" spans="1:4" s="139" customFormat="1" ht="52.8">
-      <c r="A209" s="235"/>
-      <c r="B209" s="236" t="s">
+    <row r="209" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A209" s="221"/>
+      <c r="B209" s="222" t="s">
         <v>343</v>
       </c>
-      <c r="C209" s="137" t="s">
+      <c r="C209" s="126" t="s">
         <v>344</v>
       </c>
-      <c r="D209" s="137" t="s">
+      <c r="D209" s="126" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="30">
-      <c r="A210" s="117" t="s">
+      <c r="A210" s="110" t="s">
         <v>346</v>
       </c>
-      <c r="B210" s="61"/>
-      <c r="C210" s="36" t="s">
+      <c r="B210" s="55"/>
+      <c r="C210" s="35" t="s">
         <v>347</v>
       </c>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" spans="1:4" s="139" customFormat="1" ht="45.6">
-      <c r="A211" s="237" t="s">
+    <row r="211" spans="1:4" s="128" customFormat="1" ht="45.6">
+      <c r="A211" s="223" t="s">
         <v>348</v>
       </c>
-      <c r="B211" s="238"/>
-      <c r="C211" s="239" t="s">
+      <c r="B211" s="224"/>
+      <c r="C211" s="225" t="s">
         <v>349</v>
       </c>
-      <c r="D211" s="137"/>
+      <c r="D211" s="126"/>
     </row>
     <row r="212" spans="1:4" ht="66.599999999999994">
-      <c r="A212" s="118"/>
-      <c r="B212" s="37" t="s">
+      <c r="A212" s="111"/>
+      <c r="B212" s="36" t="s">
         <v>350</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -8208,16 +8242,16 @@
       <c r="D212" s="2"/>
     </row>
     <row r="213" spans="1:4" ht="66.599999999999994">
-      <c r="A213" s="118"/>
-      <c r="B213" s="38"/>
+      <c r="A213" s="111"/>
+      <c r="B213" s="37"/>
       <c r="C213" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214" spans="1:4" ht="251.4">
-      <c r="A214" s="118"/>
-      <c r="B214" s="73" t="s">
+      <c r="A214" s="111"/>
+      <c r="B214" s="67" t="s">
         <v>353</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -8226,246 +8260,246 @@
       <c r="D214" s="2"/>
     </row>
     <row r="215" spans="1:4" ht="79.8">
-      <c r="A215" s="118"/>
-      <c r="B215" s="73"/>
+      <c r="A215" s="111"/>
+      <c r="B215" s="67"/>
       <c r="C215" s="2" t="s">
         <v>355</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216" spans="1:4" ht="172.2">
-      <c r="A216" s="119" t="s">
+      <c r="A216" s="112" t="s">
         <v>356</v>
       </c>
-      <c r="B216" s="73"/>
+      <c r="B216" s="67"/>
       <c r="C216" s="2" t="s">
         <v>357</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217" spans="1:4" ht="13.2">
-      <c r="A217" s="91"/>
-      <c r="B217" s="61"/>
+      <c r="A217" s="84"/>
+      <c r="B217" s="55"/>
       <c r="C217" s="12"/>
       <c r="D217" s="2"/>
     </row>
     <row r="218" spans="1:4" ht="22.8">
-      <c r="A218" s="88" t="s">
+      <c r="A218" s="81" t="s">
         <v>358</v>
       </c>
-      <c r="B218" s="61"/>
+      <c r="B218" s="55"/>
       <c r="C218" s="12"/>
       <c r="D218" s="2"/>
     </row>
     <row r="219" spans="1:4" ht="26.4">
-      <c r="A219" s="120"/>
-      <c r="B219" s="67" t="s">
+      <c r="A219" s="113"/>
+      <c r="B219" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="C219" s="39" t="s">
+      <c r="C219" s="38" t="s">
         <v>360</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220" spans="1:4" ht="39.6">
-      <c r="A220" s="120" t="s">
+      <c r="A220" s="113" t="s">
         <v>361</v>
       </c>
-      <c r="B220" s="67"/>
-      <c r="C220" s="240" t="s">
+      <c r="B220" s="61"/>
+      <c r="C220" s="226" t="s">
         <v>362</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4" ht="118.8">
-      <c r="A221" s="120" t="s">
+      <c r="A221" s="113" t="s">
         <v>363</v>
       </c>
-      <c r="B221" s="67"/>
-      <c r="C221" s="39" t="s">
+      <c r="B221" s="61"/>
+      <c r="C221" s="38" t="s">
         <v>364</v>
       </c>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4" s="139" customFormat="1" ht="79.2">
-      <c r="A222" s="241" t="s">
+    <row r="222" spans="1:4" s="128" customFormat="1" ht="79.2">
+      <c r="A222" s="227" t="s">
         <v>365</v>
       </c>
-      <c r="B222" s="242"/>
-      <c r="C222" s="243" t="s">
+      <c r="B222" s="228"/>
+      <c r="C222" s="229" t="s">
         <v>366</v>
       </c>
-      <c r="D222" s="137"/>
-    </row>
-    <row r="223" spans="1:4" s="139" customFormat="1" ht="92.4">
-      <c r="A223" s="241" t="s">
+      <c r="D222" s="126"/>
+    </row>
+    <row r="223" spans="1:4" s="128" customFormat="1" ht="92.4">
+      <c r="A223" s="227" t="s">
         <v>367</v>
       </c>
-      <c r="B223" s="242"/>
-      <c r="C223" s="243" t="s">
+      <c r="B223" s="228"/>
+      <c r="C223" s="229" t="s">
         <v>368</v>
       </c>
-      <c r="D223" s="137"/>
-    </row>
-    <row r="224" spans="1:4" s="139" customFormat="1" ht="39.6">
-      <c r="A224" s="152" t="s">
+      <c r="D223" s="126"/>
+    </row>
+    <row r="224" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A224" s="141" t="s">
         <v>369</v>
       </c>
-      <c r="B224" s="153"/>
-      <c r="C224" s="137" t="s">
+      <c r="B224" s="142"/>
+      <c r="C224" s="126" t="s">
         <v>370</v>
       </c>
-      <c r="D224" s="137"/>
-    </row>
-    <row r="225" spans="1:4" s="139" customFormat="1" ht="66">
-      <c r="A225" s="244" t="s">
+      <c r="D224" s="126"/>
+    </row>
+    <row r="225" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A225" s="230" t="s">
         <v>371</v>
       </c>
-      <c r="B225" s="153"/>
-      <c r="C225" s="245" t="s">
+      <c r="B225" s="142"/>
+      <c r="C225" s="231" t="s">
         <v>372</v>
       </c>
-      <c r="D225" s="137"/>
+      <c r="D225" s="126"/>
     </row>
     <row r="226" spans="1:4" ht="52.8">
-      <c r="A226" s="98" t="s">
+      <c r="A226" s="91" t="s">
         <v>373</v>
       </c>
-      <c r="B226" s="61"/>
-      <c r="C226" s="40" t="s">
+      <c r="B226" s="55"/>
+      <c r="C226" s="39" t="s">
         <v>374</v>
       </c>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="1:4" s="139" customFormat="1" ht="52.8">
-      <c r="A227" s="244" t="s">
+    <row r="227" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A227" s="230" t="s">
         <v>375</v>
       </c>
-      <c r="B227" s="153"/>
-      <c r="C227" s="245" t="s">
+      <c r="B227" s="142"/>
+      <c r="C227" s="231" t="s">
         <v>370</v>
       </c>
-      <c r="D227" s="137"/>
-    </row>
-    <row r="228" spans="1:4" s="139" customFormat="1" ht="52.8">
-      <c r="A228" s="244" t="s">
+      <c r="D227" s="126"/>
+    </row>
+    <row r="228" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A228" s="230" t="s">
         <v>376</v>
       </c>
-      <c r="B228" s="153"/>
-      <c r="C228" s="246" t="s">
+      <c r="B228" s="142"/>
+      <c r="C228" s="232" t="s">
         <v>377</v>
       </c>
-      <c r="D228" s="137"/>
-    </row>
-    <row r="229" spans="1:4" s="139" customFormat="1" ht="39.6">
-      <c r="A229" s="154" t="s">
+      <c r="D228" s="126"/>
+    </row>
+    <row r="229" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A229" s="143" t="s">
         <v>378</v>
       </c>
-      <c r="B229" s="153"/>
-      <c r="C229" s="247" t="s">
+      <c r="B229" s="142"/>
+      <c r="C229" s="233" t="s">
         <v>379</v>
       </c>
-      <c r="D229" s="137"/>
-    </row>
-    <row r="230" spans="1:4" s="139" customFormat="1" ht="66">
-      <c r="A230" s="152" t="s">
+      <c r="D229" s="126"/>
+    </row>
+    <row r="230" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A230" s="141" t="s">
         <v>380</v>
       </c>
-      <c r="B230" s="153"/>
-      <c r="C230" s="247" t="s">
+      <c r="B230" s="142"/>
+      <c r="C230" s="233" t="s">
         <v>381</v>
       </c>
-      <c r="D230" s="137"/>
+      <c r="D230" s="126"/>
     </row>
     <row r="231" spans="1:4" ht="13.2">
-      <c r="A231" s="95"/>
-      <c r="B231" s="61"/>
+      <c r="A231" s="88"/>
+      <c r="B231" s="55"/>
       <c r="C231" s="19"/>
       <c r="D231" s="2"/>
     </row>
-    <row r="232" spans="1:4" s="139" customFormat="1" ht="66">
-      <c r="A232" s="244" t="s">
+    <row r="232" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A232" s="230" t="s">
         <v>382</v>
       </c>
-      <c r="B232" s="153"/>
-      <c r="C232" s="248" t="s">
+      <c r="B232" s="142"/>
+      <c r="C232" s="234" t="s">
         <v>383</v>
       </c>
-      <c r="D232" s="137"/>
-    </row>
-    <row r="233" spans="1:4" s="139" customFormat="1" ht="52.8">
-      <c r="A233" s="249" t="s">
+      <c r="D232" s="126"/>
+    </row>
+    <row r="233" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A233" s="235" t="s">
         <v>384</v>
       </c>
-      <c r="B233" s="153"/>
-      <c r="C233" s="248" t="s">
+      <c r="B233" s="142"/>
+      <c r="C233" s="234" t="s">
         <v>385</v>
       </c>
-      <c r="D233" s="137"/>
-    </row>
-    <row r="234" spans="1:4" s="139" customFormat="1" ht="52.8">
-      <c r="A234" s="244" t="s">
+      <c r="D233" s="126"/>
+    </row>
+    <row r="234" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A234" s="230" t="s">
         <v>386</v>
       </c>
-      <c r="B234" s="153"/>
-      <c r="C234" s="250" t="s">
+      <c r="B234" s="142"/>
+      <c r="C234" s="236" t="s">
         <v>387</v>
       </c>
-      <c r="D234" s="137"/>
-    </row>
-    <row r="235" spans="1:4" s="139" customFormat="1" ht="79.2">
-      <c r="A235" s="154" t="s">
+      <c r="D234" s="126"/>
+    </row>
+    <row r="235" spans="1:4" s="128" customFormat="1" ht="79.2">
+      <c r="A235" s="143" t="s">
         <v>388</v>
       </c>
-      <c r="B235" s="153"/>
-      <c r="C235" s="248" t="s">
+      <c r="B235" s="142"/>
+      <c r="C235" s="234" t="s">
         <v>389</v>
       </c>
-      <c r="D235" s="137"/>
-    </row>
-    <row r="236" spans="1:4" s="139" customFormat="1" ht="118.8">
-      <c r="A236" s="244" t="s">
+      <c r="D235" s="126"/>
+    </row>
+    <row r="236" spans="1:4" s="128" customFormat="1" ht="118.8">
+      <c r="A236" s="230" t="s">
         <v>390</v>
       </c>
-      <c r="B236" s="153"/>
-      <c r="C236" s="248" t="s">
+      <c r="B236" s="142"/>
+      <c r="C236" s="234" t="s">
         <v>391</v>
       </c>
-      <c r="D236" s="137"/>
-    </row>
-    <row r="237" spans="1:4" s="139" customFormat="1" ht="39.6">
-      <c r="A237" s="152" t="s">
+      <c r="D236" s="126"/>
+    </row>
+    <row r="237" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A237" s="141" t="s">
         <v>392</v>
       </c>
-      <c r="B237" s="153"/>
-      <c r="C237" s="251" t="s">
+      <c r="B237" s="142"/>
+      <c r="C237" s="237" t="s">
         <v>393</v>
       </c>
-      <c r="D237" s="137"/>
+      <c r="D237" s="126"/>
     </row>
     <row r="238" spans="1:4" ht="26.4">
-      <c r="A238" s="89" t="s">
+      <c r="A238" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="B238" s="61"/>
+      <c r="B238" s="55"/>
       <c r="C238" s="11" t="s">
         <v>395</v>
       </c>
       <c r="D238" s="2"/>
     </row>
     <row r="239" spans="1:4" ht="92.4">
-      <c r="A239" s="98" t="s">
+      <c r="A239" s="91" t="s">
         <v>396</v>
       </c>
-      <c r="B239" s="61"/>
+      <c r="B239" s="55"/>
       <c r="C239" s="6" t="s">
         <v>397</v>
       </c>
       <c r="D239" s="2"/>
     </row>
     <row r="240" spans="1:4" ht="171.6">
-      <c r="A240" s="98"/>
-      <c r="B240" s="74" t="s">
+      <c r="A240" s="91"/>
+      <c r="B240" s="68" t="s">
         <v>398</v>
       </c>
       <c r="C240" s="6" t="s">
@@ -8473,247 +8507,247 @@
       </c>
       <c r="D240" s="2"/>
     </row>
-    <row r="241" spans="1:4" s="139" customFormat="1" ht="52.8">
-      <c r="A241" s="154" t="s">
+    <row r="241" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A241" s="143" t="s">
         <v>400</v>
       </c>
-      <c r="B241" s="252"/>
-      <c r="C241" s="142" t="s">
+      <c r="B241" s="238"/>
+      <c r="C241" s="131" t="s">
         <v>401</v>
       </c>
-      <c r="D241" s="137"/>
-    </row>
-    <row r="242" spans="1:4" s="139" customFormat="1" ht="66">
-      <c r="A242" s="253" t="s">
+      <c r="D241" s="126"/>
+    </row>
+    <row r="242" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A242" s="239" t="s">
         <v>402</v>
       </c>
-      <c r="B242" s="252"/>
-      <c r="C242" s="142" t="s">
+      <c r="B242" s="238"/>
+      <c r="C242" s="131" t="s">
         <v>403</v>
       </c>
-      <c r="D242" s="137"/>
-    </row>
-    <row r="243" spans="1:4" s="139" customFormat="1" ht="369.6">
-      <c r="A243" s="253" t="s">
+      <c r="D242" s="126"/>
+    </row>
+    <row r="243" spans="1:4" s="128" customFormat="1" ht="369.6">
+      <c r="A243" s="239" t="s">
         <v>404</v>
       </c>
-      <c r="B243" s="252"/>
-      <c r="C243" s="142" t="s">
+      <c r="B243" s="238"/>
+      <c r="C243" s="131" t="s">
         <v>405</v>
       </c>
-      <c r="D243" s="137"/>
+      <c r="D243" s="126"/>
     </row>
     <row r="244" spans="1:4" ht="13.2">
-      <c r="A244" s="98"/>
-      <c r="B244" s="74"/>
+      <c r="A244" s="91"/>
+      <c r="B244" s="68"/>
       <c r="C244" s="6"/>
       <c r="D244" s="2"/>
     </row>
     <row r="245" spans="1:4" ht="13.2">
-      <c r="A245" s="98"/>
-      <c r="B245" s="74"/>
+      <c r="A245" s="91"/>
+      <c r="B245" s="68"/>
       <c r="C245" s="6"/>
       <c r="D245" s="2"/>
     </row>
     <row r="246" spans="1:4" ht="13.2">
-      <c r="A246" s="86"/>
-      <c r="B246" s="61"/>
+      <c r="A246" s="79"/>
+      <c r="B246" s="55"/>
       <c r="C246" s="5"/>
       <c r="D246" s="2"/>
     </row>
     <row r="247" spans="1:4" ht="22.8">
-      <c r="A247" s="88" t="s">
+      <c r="A247" s="81" t="s">
         <v>406</v>
       </c>
-      <c r="B247" s="61"/>
+      <c r="B247" s="55"/>
       <c r="C247" s="5"/>
       <c r="D247" s="2"/>
     </row>
-    <row r="248" spans="1:4" s="139" customFormat="1" ht="13.2">
-      <c r="A248" s="154"/>
-      <c r="B248" s="159" t="s">
+    <row r="248" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A248" s="143"/>
+      <c r="B248" s="148" t="s">
         <v>407</v>
       </c>
-      <c r="C248" s="254"/>
-      <c r="D248" s="137"/>
-    </row>
-    <row r="249" spans="1:4" s="139" customFormat="1" ht="17.399999999999999">
-      <c r="A249" s="136" t="s">
+      <c r="C248" s="240"/>
+      <c r="D248" s="126"/>
+    </row>
+    <row r="249" spans="1:4" s="128" customFormat="1" ht="17.399999999999999">
+      <c r="A249" s="125" t="s">
         <v>408</v>
       </c>
-      <c r="B249" s="153"/>
-      <c r="C249" s="254" t="s">
+      <c r="B249" s="142"/>
+      <c r="C249" s="240" t="s">
         <v>409</v>
       </c>
-      <c r="D249" s="137"/>
+      <c r="D249" s="126"/>
     </row>
     <row r="250" spans="1:4" ht="13.2">
-      <c r="A250" s="98"/>
-      <c r="B250" s="61"/>
+      <c r="A250" s="91"/>
+      <c r="B250" s="55"/>
       <c r="C250" s="5"/>
       <c r="D250" s="2"/>
     </row>
     <row r="251" spans="1:4" ht="13.2">
-      <c r="A251" s="98"/>
-      <c r="B251" s="61"/>
+      <c r="A251" s="91"/>
+      <c r="B251" s="55"/>
       <c r="C251" s="5"/>
       <c r="D251" s="2"/>
     </row>
     <row r="252" spans="1:4" ht="13.2">
-      <c r="A252" s="91"/>
-      <c r="B252" s="61"/>
+      <c r="A252" s="84"/>
+      <c r="B252" s="55"/>
       <c r="C252" s="12"/>
       <c r="D252" s="2"/>
     </row>
     <row r="253" spans="1:4" ht="22.8">
-      <c r="A253" s="88" t="s">
+      <c r="A253" s="81" t="s">
         <v>410</v>
       </c>
-      <c r="B253" s="61"/>
+      <c r="B253" s="55"/>
       <c r="C253" s="12"/>
       <c r="D253" s="2"/>
     </row>
     <row r="254" spans="1:4" ht="66">
-      <c r="A254" s="89" t="s">
+      <c r="A254" s="82" t="s">
         <v>411</v>
       </c>
-      <c r="B254" s="61"/>
+      <c r="B254" s="55"/>
       <c r="C254" s="2" t="s">
         <v>412</v>
       </c>
       <c r="D254" s="2"/>
     </row>
     <row r="255" spans="1:4" ht="13.2">
-      <c r="A255" s="91"/>
-      <c r="B255" s="61"/>
+      <c r="A255" s="84"/>
+      <c r="B255" s="55"/>
       <c r="C255" s="12"/>
       <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4" ht="13.2">
-      <c r="A256" s="91"/>
-      <c r="B256" s="61"/>
+      <c r="A256" s="84"/>
+      <c r="B256" s="55"/>
       <c r="C256" s="12"/>
       <c r="D256" s="2"/>
     </row>
     <row r="257" spans="1:4" ht="13.2">
-      <c r="A257" s="91"/>
-      <c r="B257" s="61"/>
+      <c r="A257" s="84"/>
+      <c r="B257" s="55"/>
       <c r="C257" s="12"/>
       <c r="D257" s="2"/>
     </row>
     <row r="258" spans="1:4" ht="22.8">
-      <c r="A258" s="88" t="s">
+      <c r="A258" s="81" t="s">
         <v>413</v>
       </c>
-      <c r="B258" s="61"/>
+      <c r="B258" s="55"/>
       <c r="C258" s="12"/>
       <c r="D258" s="2"/>
     </row>
     <row r="259" spans="1:4" ht="66">
-      <c r="A259" s="98" t="s">
+      <c r="A259" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="B259" s="61"/>
-      <c r="C259" s="42" t="s">
+      <c r="B259" s="55"/>
+      <c r="C259" s="40" t="s">
         <v>415</v>
       </c>
       <c r="D259" s="2"/>
     </row>
     <row r="260" spans="1:4" ht="13.2">
-      <c r="A260" s="82" t="s">
+      <c r="A260" s="75" t="s">
         <v>416</v>
       </c>
-      <c r="B260" s="61"/>
-      <c r="C260" s="43" t="s">
+      <c r="B260" s="55"/>
+      <c r="C260" s="41" t="s">
         <v>417</v>
       </c>
       <c r="D260" s="2"/>
     </row>
     <row r="261" spans="1:4" ht="13.2">
-      <c r="A261" s="82" t="s">
+      <c r="A261" s="75" t="s">
         <v>418</v>
       </c>
-      <c r="B261" s="61"/>
-      <c r="C261" s="44" t="s">
+      <c r="B261" s="55"/>
+      <c r="C261" s="42" t="s">
         <v>419</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="262" spans="1:4" s="139" customFormat="1" ht="39.6">
-      <c r="A262" s="244" t="s">
+    <row r="262" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A262" s="230" t="s">
         <v>421</v>
       </c>
-      <c r="B262" s="153"/>
-      <c r="C262" s="254" t="s">
+      <c r="B262" s="142"/>
+      <c r="C262" s="240" t="s">
         <v>422</v>
       </c>
-      <c r="D262" s="137"/>
-    </row>
-    <row r="263" spans="1:4" s="139" customFormat="1" ht="13.2">
-      <c r="A263" s="152" t="s">
+      <c r="D262" s="126"/>
+    </row>
+    <row r="263" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A263" s="141" t="s">
         <v>423</v>
       </c>
-      <c r="B263" s="153"/>
-      <c r="C263" s="142" t="s">
+      <c r="B263" s="142"/>
+      <c r="C263" s="131" t="s">
         <v>424</v>
       </c>
-      <c r="D263" s="137"/>
+      <c r="D263" s="126"/>
     </row>
     <row r="264" spans="1:4" ht="39.6">
-      <c r="A264" s="98" t="s">
+      <c r="A264" s="91" t="s">
         <v>425</v>
       </c>
-      <c r="B264" s="61"/>
+      <c r="B264" s="55"/>
       <c r="C264" s="5" t="s">
         <v>426</v>
       </c>
       <c r="D264" s="2"/>
     </row>
     <row r="265" spans="1:4" ht="26.4">
-      <c r="A265" s="121" t="s">
+      <c r="A265" s="114" t="s">
         <v>427</v>
       </c>
-      <c r="B265" s="61"/>
+      <c r="B265" s="55"/>
       <c r="C265" s="6" t="s">
         <v>428</v>
       </c>
       <c r="D265" s="2"/>
     </row>
     <row r="266" spans="1:4" ht="52.8">
-      <c r="A266" s="112" t="s">
+      <c r="A266" s="105" t="s">
         <v>429</v>
       </c>
-      <c r="B266" s="61"/>
+      <c r="B266" s="55"/>
       <c r="C266" s="6" t="s">
         <v>430</v>
       </c>
       <c r="D266" s="2"/>
     </row>
     <row r="267" spans="1:4" ht="39.6">
-      <c r="A267" s="98" t="s">
+      <c r="A267" s="91" t="s">
         <v>431</v>
       </c>
-      <c r="B267" s="61"/>
+      <c r="B267" s="55"/>
       <c r="C267" s="6" t="s">
         <v>432</v>
       </c>
       <c r="D267" s="2"/>
     </row>
     <row r="268" spans="1:4" ht="13.2">
-      <c r="A268" s="95" t="s">
+      <c r="A268" s="88" t="s">
         <v>433</v>
       </c>
-      <c r="B268" s="61"/>
+      <c r="B268" s="55"/>
       <c r="C268" s="19" t="s">
         <v>434</v>
       </c>
       <c r="D268" s="2"/>
     </row>
     <row r="269" spans="1:4" ht="118.8">
-      <c r="A269" s="98"/>
-      <c r="B269" s="57" t="s">
+      <c r="A269" s="91"/>
+      <c r="B269" s="51" t="s">
         <v>435</v>
       </c>
       <c r="C269" s="6" t="s">
@@ -8722,60 +8756,60 @@
       <c r="D269" s="2"/>
     </row>
     <row r="270" spans="1:4" ht="52.8">
-      <c r="A270" s="98" t="s">
+      <c r="A270" s="91" t="s">
         <v>437</v>
       </c>
-      <c r="B270" s="61"/>
+      <c r="B270" s="55"/>
       <c r="C270" s="6" t="s">
         <v>438</v>
       </c>
       <c r="D270" s="2"/>
     </row>
-    <row r="271" spans="1:4" s="139" customFormat="1" ht="105.6">
-      <c r="A271" s="253" t="s">
+    <row r="271" spans="1:4" s="128" customFormat="1" ht="105.6">
+      <c r="A271" s="239" t="s">
         <v>439</v>
       </c>
-      <c r="B271" s="153"/>
-      <c r="C271" s="142" t="s">
+      <c r="B271" s="142"/>
+      <c r="C271" s="131" t="s">
         <v>440</v>
       </c>
-      <c r="D271" s="137"/>
-    </row>
-    <row r="272" spans="1:4" s="139" customFormat="1" ht="26.4">
-      <c r="A272" s="253" t="s">
+      <c r="D271" s="126"/>
+    </row>
+    <row r="272" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A272" s="239" t="s">
         <v>441</v>
       </c>
-      <c r="B272" s="153"/>
-      <c r="C272" s="142" t="s">
+      <c r="B272" s="142"/>
+      <c r="C272" s="131" t="s">
         <v>442</v>
       </c>
-      <c r="D272" s="137"/>
+      <c r="D272" s="126"/>
     </row>
     <row r="273" spans="1:4" ht="39.6">
-      <c r="A273" s="86" t="s">
+      <c r="A273" s="79" t="s">
         <v>443</v>
       </c>
-      <c r="B273" s="61"/>
+      <c r="B273" s="55"/>
       <c r="C273" s="6" t="s">
         <v>444</v>
       </c>
       <c r="D273" s="2"/>
     </row>
-    <row r="274" spans="1:4" s="139" customFormat="1" ht="13.2">
-      <c r="A274" s="152" t="s">
+    <row r="274" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A274" s="141" t="s">
         <v>445</v>
       </c>
-      <c r="B274" s="153"/>
-      <c r="C274" s="254" t="s">
+      <c r="B274" s="142"/>
+      <c r="C274" s="240" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="137"/>
+      <c r="D274" s="126"/>
     </row>
     <row r="275" spans="1:4" ht="26.4">
-      <c r="A275" s="95" t="s">
+      <c r="A275" s="88" t="s">
         <v>447</v>
       </c>
-      <c r="B275" s="66" t="s">
+      <c r="B275" s="60" t="s">
         <v>448</v>
       </c>
       <c r="C275" s="6" t="s">
@@ -8783,123 +8817,123 @@
       </c>
       <c r="D275" s="2"/>
     </row>
-    <row r="276" spans="1:4" s="139" customFormat="1" ht="79.2">
-      <c r="A276" s="253" t="s">
+    <row r="276" spans="1:4" s="128" customFormat="1" ht="79.2">
+      <c r="A276" s="239" t="s">
         <v>450</v>
       </c>
-      <c r="B276" s="145" t="s">
+      <c r="B276" s="134" t="s">
         <v>451</v>
       </c>
-      <c r="C276" s="142" t="s">
+      <c r="C276" s="131" t="s">
         <v>452</v>
       </c>
-      <c r="D276" s="137"/>
+      <c r="D276" s="126"/>
     </row>
     <row r="277" spans="1:4" ht="369.6">
-      <c r="A277" s="105" t="s">
+      <c r="A277" s="98" t="s">
         <v>450</v>
       </c>
-      <c r="B277" s="61"/>
+      <c r="B277" s="55"/>
       <c r="C277" s="6" t="s">
         <v>453</v>
       </c>
       <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4" ht="39.6">
-      <c r="A278" s="98" t="s">
+      <c r="A278" s="91" t="s">
         <v>454</v>
       </c>
-      <c r="B278" s="61"/>
+      <c r="B278" s="55"/>
       <c r="C278" s="6" t="s">
         <v>455</v>
       </c>
       <c r="D278" s="2"/>
     </row>
     <row r="279" spans="1:4" ht="13.2">
-      <c r="A279" s="86" t="s">
+      <c r="A279" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="B279" s="61"/>
+      <c r="B279" s="55"/>
       <c r="C279" s="6" t="s">
         <v>457</v>
       </c>
       <c r="D279" s="2"/>
     </row>
     <row r="280" spans="1:4" ht="13.2">
-      <c r="A280" s="98"/>
-      <c r="B280" s="61"/>
+      <c r="A280" s="91"/>
+      <c r="B280" s="55"/>
       <c r="C280" s="5"/>
       <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4" ht="13.2">
-      <c r="A281" s="91"/>
-      <c r="B281" s="61"/>
+      <c r="A281" s="84"/>
+      <c r="B281" s="55"/>
       <c r="C281" s="12"/>
       <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4" ht="22.8">
-      <c r="A282" s="88" t="s">
+      <c r="A282" s="81" t="s">
         <v>458</v>
       </c>
-      <c r="B282" s="61"/>
+      <c r="B282" s="55"/>
       <c r="C282" s="12"/>
       <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4" ht="17.399999999999999">
-      <c r="A283" s="85"/>
-      <c r="B283" s="54"/>
+      <c r="A283" s="78"/>
+      <c r="B283" s="48"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4" ht="66">
-      <c r="A284" s="122" t="s">
+      <c r="A284" s="115" t="s">
         <v>459</v>
       </c>
-      <c r="B284" s="54"/>
+      <c r="B284" s="48"/>
       <c r="C284" s="2" t="s">
         <v>460</v>
       </c>
       <c r="D284" s="2"/>
     </row>
     <row r="285" spans="1:4" ht="92.4">
-      <c r="A285" s="122"/>
-      <c r="B285" s="54"/>
+      <c r="A285" s="115"/>
+      <c r="B285" s="48"/>
       <c r="C285" s="2" t="s">
         <v>461</v>
       </c>
       <c r="D285" s="2"/>
     </row>
-    <row r="286" spans="1:4" s="139" customFormat="1" ht="79.2">
-      <c r="A286" s="255" t="s">
+    <row r="286" spans="1:4" s="128" customFormat="1" ht="79.2">
+      <c r="A286" s="241" t="s">
         <v>462</v>
       </c>
-      <c r="B286" s="146"/>
-      <c r="C286" s="137" t="s">
+      <c r="B286" s="135"/>
+      <c r="C286" s="126" t="s">
         <v>463</v>
       </c>
-      <c r="D286" s="137"/>
-    </row>
-    <row r="287" spans="1:4" s="139" customFormat="1" ht="66">
-      <c r="A287" s="255" t="s">
+      <c r="D286" s="126"/>
+    </row>
+    <row r="287" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A287" s="241" t="s">
         <v>464</v>
       </c>
-      <c r="B287" s="146" t="s">
+      <c r="B287" s="135" t="s">
         <v>465</v>
       </c>
-      <c r="C287" s="137" t="s">
+      <c r="C287" s="126" t="s">
         <v>466</v>
       </c>
-      <c r="D287" s="137"/>
+      <c r="D287" s="126"/>
     </row>
     <row r="288" spans="1:4" ht="17.399999999999999">
-      <c r="A288" s="85"/>
-      <c r="B288" s="54"/>
+      <c r="A288" s="78"/>
+      <c r="B288" s="48"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
     </row>
     <row r="289" spans="1:4" ht="17.399999999999999">
-      <c r="A289" s="85"/>
-      <c r="B289" s="54" t="s">
+      <c r="A289" s="78"/>
+      <c r="B289" s="48" t="s">
         <v>467</v>
       </c>
       <c r="C289" s="2" t="s">
@@ -8908,10 +8942,10 @@
       <c r="D289" s="2"/>
     </row>
     <row r="290" spans="1:4" ht="13.2">
-      <c r="A290" s="95" t="s">
+      <c r="A290" s="88" t="s">
         <v>469</v>
       </c>
-      <c r="B290" s="54" t="s">
+      <c r="B290" s="48" t="s">
         <v>470</v>
       </c>
       <c r="C290" s="2" t="s">
@@ -8920,10 +8954,10 @@
       <c r="D290" s="2"/>
     </row>
     <row r="291" spans="1:4" ht="105.6">
-      <c r="A291" s="95" t="s">
+      <c r="A291" s="88" t="s">
         <v>472</v>
       </c>
-      <c r="B291" s="54" t="s">
+      <c r="B291" s="48" t="s">
         <v>473</v>
       </c>
       <c r="C291" s="2" t="s">
@@ -8931,11 +8965,11 @@
       </c>
       <c r="D291" s="2"/>
     </row>
-    <row r="292" spans="1:4" ht="66">
-      <c r="A292" s="95" t="s">
+    <row r="292" spans="1:4" ht="52.8">
+      <c r="A292" s="88" t="s">
         <v>475</v>
       </c>
-      <c r="B292" s="54" t="s">
+      <c r="B292" s="48" t="s">
         <v>473</v>
       </c>
       <c r="C292" s="2" t="s">
@@ -8944,10 +8978,10 @@
       <c r="D292" s="2"/>
     </row>
     <row r="293" spans="1:4" ht="158.4">
-      <c r="A293" s="95" t="s">
+      <c r="A293" s="88" t="s">
         <v>477</v>
       </c>
-      <c r="B293" s="54" t="s">
+      <c r="B293" s="48" t="s">
         <v>473</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -8956,10 +8990,10 @@
       <c r="D293" s="2"/>
     </row>
     <row r="294" spans="1:4" ht="39.6">
-      <c r="A294" s="89" t="s">
+      <c r="A294" s="82" t="s">
         <v>479</v>
       </c>
-      <c r="B294" s="75" t="s">
+      <c r="B294" s="69" t="s">
         <v>61</v>
       </c>
       <c r="C294" s="2" t="s">
@@ -8968,1420 +9002,1420 @@
       <c r="D294" s="2"/>
     </row>
     <row r="295" spans="1:4" ht="13.2">
-      <c r="A295" s="89"/>
-      <c r="B295" s="75"/>
+      <c r="A295" s="82"/>
+      <c r="B295" s="69"/>
       <c r="C295" s="4"/>
       <c r="D295" s="2"/>
     </row>
     <row r="296" spans="1:4" ht="52.8">
-      <c r="A296" s="98" t="s">
+      <c r="A296" s="91" t="s">
         <v>481</v>
       </c>
-      <c r="B296" s="61"/>
+      <c r="B296" s="55"/>
       <c r="C296" s="4" t="s">
         <v>482</v>
       </c>
       <c r="D296" s="2"/>
     </row>
-    <row r="297" spans="1:4" s="139" customFormat="1" ht="26.4">
-      <c r="A297" s="150" t="s">
+    <row r="297" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A297" s="139" t="s">
         <v>483</v>
       </c>
-      <c r="B297" s="153"/>
-      <c r="C297" s="254" t="s">
+      <c r="B297" s="142"/>
+      <c r="C297" s="240" t="s">
         <v>484</v>
       </c>
-      <c r="D297" s="137"/>
-    </row>
-    <row r="298" spans="1:4" ht="26.4">
-      <c r="A298" s="121" t="s">
+      <c r="D297" s="126"/>
+    </row>
+    <row r="298" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A298" s="245" t="s">
         <v>485</v>
       </c>
-      <c r="B298" s="61"/>
-      <c r="C298" s="31" t="s">
+      <c r="B298" s="142"/>
+      <c r="C298" s="246" t="s">
         <v>486</v>
       </c>
-      <c r="D298" s="2"/>
+      <c r="D298" s="126"/>
     </row>
     <row r="299" spans="1:4" ht="13.2">
-      <c r="A299" s="82"/>
-      <c r="B299" s="54" t="s">
+      <c r="A299" s="75"/>
+      <c r="B299" s="48" t="s">
         <v>487</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="2"/>
     </row>
-    <row r="300" spans="1:4" ht="52.8">
-      <c r="A300" s="112" t="s">
+    <row r="300" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A300" s="247" t="s">
         <v>488</v>
       </c>
-      <c r="B300" s="61"/>
-      <c r="C300" s="6" t="s">
+      <c r="B300" s="142"/>
+      <c r="C300" s="131" t="s">
         <v>489</v>
       </c>
-      <c r="D300" s="2"/>
+      <c r="D300" s="126"/>
     </row>
     <row r="301" spans="1:4" ht="13.2">
-      <c r="A301" s="82"/>
-      <c r="B301" s="61"/>
+      <c r="A301" s="75"/>
+      <c r="B301" s="55"/>
       <c r="C301" s="5"/>
       <c r="D301" s="2"/>
     </row>
-    <row r="302" spans="1:4" ht="171.6">
-      <c r="A302" s="89" t="s">
+    <row r="302" spans="1:4" s="128" customFormat="1" ht="158.4">
+      <c r="A302" s="235" t="s">
         <v>490</v>
       </c>
-      <c r="B302" s="61"/>
-      <c r="C302" s="2" t="s">
+      <c r="B302" s="142"/>
+      <c r="C302" s="126" t="s">
         <v>491</v>
       </c>
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="1:4" ht="26.4">
-      <c r="A303" s="98" t="s">
+      <c r="D302" s="126"/>
+    </row>
+    <row r="303" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A303" s="143" t="s">
         <v>492</v>
       </c>
-      <c r="B303" s="61"/>
-      <c r="C303" s="2" t="s">
+      <c r="B303" s="142"/>
+      <c r="C303" s="126" t="s">
         <v>493</v>
       </c>
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304" spans="1:4" ht="30.75" customHeight="1">
-      <c r="A304" s="89" t="s">
+      <c r="D303" s="126"/>
+    </row>
+    <row r="304" spans="1:4" s="128" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A304" s="230" t="s">
         <v>494</v>
       </c>
-      <c r="B304" s="61"/>
-      <c r="C304" s="2" t="s">
+      <c r="B304" s="142"/>
+      <c r="C304" s="126" t="s">
         <v>495</v>
       </c>
-      <c r="D304" s="2"/>
-    </row>
-    <row r="305" spans="1:4" ht="26.4">
-      <c r="A305" s="82" t="s">
+      <c r="D304" s="126"/>
+    </row>
+    <row r="305" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A305" s="139" t="s">
         <v>496</v>
       </c>
-      <c r="B305" s="54" t="s">
+      <c r="B305" s="135" t="s">
         <v>497</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="126" t="s">
         <v>498</v>
       </c>
-      <c r="D305" s="2"/>
-    </row>
-    <row r="306" spans="1:4" ht="66">
-      <c r="A306" s="95" t="s">
+      <c r="D305" s="126"/>
+    </row>
+    <row r="306" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A306" s="141" t="s">
         <v>499</v>
       </c>
-      <c r="B306" s="54" t="s">
+      <c r="B306" s="135" t="s">
         <v>500</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="126" t="s">
         <v>501</v>
       </c>
-      <c r="D306" s="2"/>
-    </row>
-    <row r="307" spans="1:4" ht="92.4">
-      <c r="A307" s="111" t="s">
+      <c r="D306" s="126"/>
+    </row>
+    <row r="307" spans="1:4" s="128" customFormat="1" ht="92.4">
+      <c r="A307" s="248" t="s">
         <v>502</v>
       </c>
-      <c r="B307" s="75" t="s">
+      <c r="B307" s="249" t="s">
         <v>503</v>
       </c>
-      <c r="C307" s="26" t="s">
+      <c r="C307" s="250" t="s">
         <v>504</v>
       </c>
-      <c r="D307" s="2"/>
-    </row>
-    <row r="308" spans="1:4" ht="52.8">
-      <c r="A308" s="98" t="s">
+      <c r="D307" s="126"/>
+    </row>
+    <row r="308" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A308" s="143" t="s">
         <v>505</v>
       </c>
-      <c r="B308" s="75" t="s">
+      <c r="B308" s="249" t="s">
         <v>503</v>
       </c>
-      <c r="C308" s="26" t="s">
+      <c r="C308" s="250" t="s">
         <v>506</v>
       </c>
-      <c r="D308" s="2"/>
-    </row>
-    <row r="309" spans="1:4" ht="13.2">
-      <c r="A309" s="95" t="s">
+      <c r="D308" s="126"/>
+    </row>
+    <row r="309" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A309" s="141" t="s">
         <v>507</v>
       </c>
-      <c r="B309" s="54" t="s">
+      <c r="B309" s="135" t="s">
         <v>508</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="126" t="s">
         <v>509</v>
       </c>
-      <c r="D309" s="2"/>
-    </row>
-    <row r="310" spans="1:4" ht="66">
-      <c r="A310" s="98" t="s">
+      <c r="D309" s="126"/>
+    </row>
+    <row r="310" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A310" s="143" t="s">
         <v>510</v>
       </c>
-      <c r="B310" s="75" t="s">
+      <c r="B310" s="249" t="s">
         <v>503</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="126" t="s">
         <v>511</v>
       </c>
-      <c r="D310" s="2"/>
-    </row>
-    <row r="311" spans="1:4" ht="26.4">
-      <c r="A311" s="86" t="s">
+      <c r="D310" s="126"/>
+    </row>
+    <row r="311" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A311" s="239" t="s">
         <v>512</v>
       </c>
-      <c r="B311" s="75" t="s">
+      <c r="B311" s="249" t="s">
         <v>503</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="126" t="s">
         <v>513</v>
       </c>
-      <c r="D311" s="2"/>
-    </row>
-    <row r="312" spans="1:4" ht="39.6">
-      <c r="A312" s="86" t="s">
+      <c r="D311" s="126"/>
+    </row>
+    <row r="312" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A312" s="239" t="s">
         <v>514</v>
       </c>
-      <c r="B312" s="75"/>
-      <c r="C312" s="2" t="s">
+      <c r="B312" s="249"/>
+      <c r="C312" s="126" t="s">
         <v>515</v>
       </c>
-      <c r="D312" s="2"/>
-    </row>
-    <row r="313" spans="1:4" ht="119.4">
-      <c r="A313" s="123" t="s">
+      <c r="D312" s="126"/>
+    </row>
+    <row r="313" spans="1:4" s="128" customFormat="1" ht="119.4">
+      <c r="A313" s="251" t="s">
         <v>516</v>
       </c>
-      <c r="B313" s="75" t="s">
+      <c r="B313" s="249" t="s">
         <v>503</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="126" t="s">
         <v>517</v>
       </c>
-      <c r="D313" s="2"/>
+      <c r="D313" s="126"/>
     </row>
     <row r="314" spans="1:4" ht="13.2">
-      <c r="A314" s="91"/>
-      <c r="B314" s="61"/>
+      <c r="A314" s="84"/>
+      <c r="B314" s="55"/>
       <c r="C314" s="12"/>
       <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4" ht="13.2">
-      <c r="A315" s="91"/>
-      <c r="B315" s="61"/>
+      <c r="A315" s="84"/>
+      <c r="B315" s="55"/>
       <c r="C315" s="12"/>
       <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4" ht="22.8">
-      <c r="A316" s="88" t="s">
+      <c r="A316" s="81" t="s">
         <v>518</v>
       </c>
-      <c r="B316" s="61"/>
+      <c r="B316" s="55"/>
       <c r="C316" s="12"/>
       <c r="D316" s="2"/>
     </row>
-    <row r="317" spans="1:4" ht="66">
-      <c r="A317" s="124" t="s">
+    <row r="317" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A317" s="252" t="s">
         <v>519</v>
       </c>
-      <c r="B317" s="61"/>
-      <c r="C317" s="6" t="s">
+      <c r="B317" s="142"/>
+      <c r="C317" s="131" t="s">
         <v>520</v>
       </c>
-      <c r="D317" s="2"/>
-    </row>
-    <row r="318" spans="1:4" ht="26.4">
-      <c r="A318" s="98" t="s">
+      <c r="D317" s="126"/>
+    </row>
+    <row r="318" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A318" s="143" t="s">
         <v>521</v>
       </c>
-      <c r="B318" s="61"/>
-      <c r="C318" s="5" t="s">
+      <c r="B318" s="142"/>
+      <c r="C318" s="240" t="s">
         <v>522</v>
       </c>
-      <c r="D318" s="2"/>
+      <c r="D318" s="126"/>
     </row>
     <row r="319" spans="1:4" ht="13.2">
-      <c r="A319" s="82"/>
-      <c r="B319" s="61"/>
+      <c r="A319" s="75"/>
+      <c r="B319" s="55"/>
       <c r="C319" s="12"/>
       <c r="D319" s="2"/>
     </row>
     <row r="320" spans="1:4" ht="13.2">
-      <c r="A320" s="82" t="s">
+      <c r="A320" s="75" t="s">
         <v>523</v>
       </c>
-      <c r="B320" s="61"/>
+      <c r="B320" s="55"/>
       <c r="C320" s="1" t="s">
         <v>524</v>
       </c>
       <c r="D320" s="2"/>
     </row>
     <row r="321" spans="1:4" ht="26.4">
-      <c r="A321" s="82" t="s">
+      <c r="A321" s="75" t="s">
         <v>525</v>
       </c>
-      <c r="B321" s="61"/>
+      <c r="B321" s="55"/>
       <c r="C321" s="2" t="s">
         <v>526</v>
       </c>
       <c r="D321" s="2"/>
     </row>
-    <row r="322" spans="1:4" ht="26.4">
-      <c r="A322" s="82" t="s">
+    <row r="322" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A322" s="139" t="s">
         <v>527</v>
       </c>
-      <c r="B322" s="61"/>
-      <c r="C322" s="2" t="s">
+      <c r="B322" s="142"/>
+      <c r="C322" s="126" t="s">
         <v>528</v>
       </c>
-      <c r="D322" s="2"/>
-    </row>
-    <row r="323" spans="1:4" ht="93">
-      <c r="A323" s="82" t="s">
+      <c r="D322" s="126"/>
+    </row>
+    <row r="323" spans="1:4" s="128" customFormat="1" ht="93">
+      <c r="A323" s="139" t="s">
         <v>529</v>
       </c>
-      <c r="B323" s="76" t="s">
+      <c r="B323" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="126" t="s">
         <v>531</v>
       </c>
-      <c r="D323" s="2"/>
-    </row>
-    <row r="324" spans="1:4" ht="26.4">
-      <c r="A324" s="89" t="s">
+      <c r="D323" s="126"/>
+    </row>
+    <row r="324" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A324" s="230" t="s">
         <v>532</v>
       </c>
-      <c r="B324" s="61"/>
-      <c r="C324" s="2" t="s">
+      <c r="B324" s="142"/>
+      <c r="C324" s="126" t="s">
         <v>533</v>
       </c>
-      <c r="D324" s="2"/>
-    </row>
-    <row r="325" spans="1:4" ht="26.4">
-      <c r="A325" s="98" t="s">
+      <c r="D324" s="126"/>
+    </row>
+    <row r="325" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A325" s="143" t="s">
         <v>534</v>
       </c>
-      <c r="B325" s="61"/>
-      <c r="C325" s="2" t="s">
+      <c r="B325" s="142"/>
+      <c r="C325" s="126" t="s">
         <v>535</v>
       </c>
-      <c r="D325" s="2"/>
-    </row>
-    <row r="326" spans="1:4" ht="52.8">
-      <c r="A326" s="89" t="s">
+      <c r="D325" s="126"/>
+    </row>
+    <row r="326" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A326" s="230" t="s">
         <v>536</v>
       </c>
-      <c r="B326" s="61"/>
-      <c r="C326" s="2" t="s">
+      <c r="B326" s="142"/>
+      <c r="C326" s="126" t="s">
         <v>537</v>
       </c>
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327" spans="1:4" ht="52.8">
-      <c r="A327" s="89" t="s">
+      <c r="D326" s="126"/>
+    </row>
+    <row r="327" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A327" s="230" t="s">
         <v>538</v>
       </c>
-      <c r="B327" s="61"/>
-      <c r="C327" s="2" t="s">
+      <c r="B327" s="142"/>
+      <c r="C327" s="126" t="s">
         <v>539</v>
       </c>
-      <c r="D327" s="2"/>
-    </row>
-    <row r="328" spans="1:4" ht="13.2">
-      <c r="A328" s="89" t="s">
+      <c r="D327" s="126"/>
+    </row>
+    <row r="328" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A328" s="230" t="s">
         <v>540</v>
       </c>
-      <c r="B328" s="61"/>
-      <c r="C328" s="2" t="s">
+      <c r="B328" s="142"/>
+      <c r="C328" s="126" t="s">
         <v>541</v>
       </c>
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329" spans="1:4" ht="66.599999999999994">
-      <c r="A329" s="85" t="s">
+      <c r="D328" s="126"/>
+    </row>
+    <row r="329" spans="1:4" s="128" customFormat="1" ht="66.599999999999994">
+      <c r="A329" s="125" t="s">
         <v>542</v>
       </c>
-      <c r="B329" s="61"/>
-      <c r="C329" s="2" t="s">
+      <c r="B329" s="142"/>
+      <c r="C329" s="126" t="s">
         <v>543</v>
       </c>
-      <c r="D329" s="2"/>
-    </row>
-    <row r="330" spans="1:4" ht="13.2">
-      <c r="A330" s="95" t="s">
+      <c r="D329" s="126"/>
+    </row>
+    <row r="330" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A330" s="141" t="s">
         <v>544</v>
       </c>
-      <c r="B330" s="61"/>
-      <c r="C330" s="2" t="s">
+      <c r="B330" s="142"/>
+      <c r="C330" s="126" t="s">
         <v>457</v>
       </c>
-      <c r="D330" s="2"/>
-    </row>
-    <row r="331" spans="1:4" ht="13.2">
-      <c r="A331" s="107" t="s">
+      <c r="D330" s="126"/>
+    </row>
+    <row r="331" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A331" s="254" t="s">
         <v>545</v>
       </c>
-      <c r="B331" s="61"/>
-      <c r="C331" s="2" t="s">
+      <c r="B331" s="142"/>
+      <c r="C331" s="126" t="s">
         <v>546</v>
       </c>
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332" spans="1:4" ht="66">
-      <c r="A332" s="86" t="s">
+      <c r="D331" s="126"/>
+    </row>
+    <row r="332" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A332" s="239" t="s">
         <v>547</v>
       </c>
-      <c r="B332" s="61"/>
-      <c r="C332" s="2" t="s">
+      <c r="B332" s="142"/>
+      <c r="C332" s="126" t="s">
         <v>548</v>
       </c>
-      <c r="D332" s="2"/>
-    </row>
-    <row r="333" spans="1:4" ht="66">
-      <c r="A333" s="86" t="s">
+      <c r="D332" s="126"/>
+    </row>
+    <row r="333" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A333" s="239" t="s">
         <v>549</v>
       </c>
-      <c r="B333" s="61"/>
-      <c r="C333" s="2" t="s">
+      <c r="B333" s="142"/>
+      <c r="C333" s="126" t="s">
         <v>550</v>
       </c>
-      <c r="D333" s="2"/>
-    </row>
-    <row r="334" spans="1:4" ht="39.6">
-      <c r="A334" s="86" t="s">
+      <c r="D333" s="126"/>
+    </row>
+    <row r="334" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A334" s="239" t="s">
         <v>551</v>
       </c>
-      <c r="B334" s="61"/>
-      <c r="C334" s="2" t="s">
+      <c r="B334" s="142"/>
+      <c r="C334" s="126" t="s">
         <v>552</v>
       </c>
-      <c r="D334" s="2"/>
-    </row>
-    <row r="335" spans="1:4" ht="66">
-      <c r="A335" s="86" t="s">
+      <c r="D334" s="126"/>
+    </row>
+    <row r="335" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A335" s="239" t="s">
         <v>553</v>
       </c>
-      <c r="B335" s="61"/>
-      <c r="C335" s="2" t="s">
+      <c r="B335" s="142"/>
+      <c r="C335" s="126" t="s">
         <v>554</v>
       </c>
-      <c r="D335" s="2"/>
-    </row>
-    <row r="336" spans="1:4" ht="79.2">
-      <c r="A336" s="86" t="s">
+      <c r="D335" s="126"/>
+    </row>
+    <row r="336" spans="1:4" s="128" customFormat="1" ht="79.2">
+      <c r="A336" s="239" t="s">
         <v>555</v>
       </c>
-      <c r="B336" s="61"/>
-      <c r="C336" s="2" t="s">
+      <c r="B336" s="142"/>
+      <c r="C336" s="126" t="s">
         <v>556</v>
       </c>
-      <c r="D336" s="2"/>
+      <c r="D336" s="126"/>
     </row>
     <row r="337" spans="1:4" ht="13.2">
-      <c r="A337" s="91"/>
-      <c r="B337" s="61"/>
+      <c r="A337" s="84"/>
+      <c r="B337" s="55"/>
       <c r="C337" s="12"/>
       <c r="D337" s="2"/>
     </row>
     <row r="338" spans="1:4" ht="22.8">
-      <c r="A338" s="88" t="s">
+      <c r="A338" s="81" t="s">
         <v>557</v>
       </c>
-      <c r="B338" s="61"/>
+      <c r="B338" s="55"/>
       <c r="C338" s="12"/>
       <c r="D338" s="2"/>
     </row>
     <row r="339" spans="1:4" ht="132.6">
-      <c r="A339" s="125" t="s">
+      <c r="A339" s="116" t="s">
         <v>558</v>
       </c>
-      <c r="B339" s="77"/>
-      <c r="C339" s="39" t="s">
+      <c r="B339" s="70"/>
+      <c r="C339" s="38" t="s">
         <v>559</v>
       </c>
       <c r="D339" s="2"/>
     </row>
     <row r="340" spans="1:4" ht="66.599999999999994">
-      <c r="A340" s="125" t="s">
+      <c r="A340" s="116" t="s">
         <v>560</v>
       </c>
-      <c r="B340" s="77"/>
-      <c r="C340" s="45" t="s">
+      <c r="B340" s="70"/>
+      <c r="C340" s="43" t="s">
         <v>561</v>
       </c>
       <c r="D340" s="2"/>
     </row>
     <row r="341" spans="1:4" ht="39.6">
-      <c r="A341" s="98" t="s">
+      <c r="A341" s="91" t="s">
         <v>562</v>
       </c>
-      <c r="B341" s="61"/>
+      <c r="B341" s="55"/>
       <c r="C341" s="2" t="s">
         <v>563</v>
       </c>
       <c r="D341" s="2"/>
     </row>
-    <row r="342" spans="1:4" ht="39.6">
-      <c r="A342" s="98" t="s">
+    <row r="342" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A342" s="239" t="s">
+        <v>713</v>
+      </c>
+      <c r="B342" s="142"/>
+      <c r="C342" s="126" t="s">
         <v>564</v>
       </c>
-      <c r="B342" s="61"/>
-      <c r="C342" s="2" t="s">
+      <c r="D342" s="126"/>
+    </row>
+    <row r="343" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A343" s="255" t="s">
         <v>565</v>
       </c>
-      <c r="D342" s="2"/>
-    </row>
-    <row r="343" spans="1:4" ht="39.6">
-      <c r="A343" s="126" t="s">
+      <c r="B343" s="142"/>
+      <c r="C343" s="126" t="s">
         <v>566</v>
       </c>
-      <c r="B343" s="61"/>
-      <c r="C343" s="2" t="s">
+      <c r="D343" s="126"/>
+    </row>
+    <row r="344" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A344" s="256" t="s">
         <v>567</v>
       </c>
-      <c r="D343" s="2"/>
-    </row>
-    <row r="344" spans="1:4" ht="39.6">
-      <c r="A344" s="87" t="s">
+      <c r="B344" s="142"/>
+      <c r="C344" s="126" t="s">
         <v>568</v>
       </c>
-      <c r="B344" s="61"/>
-      <c r="C344" s="2" t="s">
+      <c r="D344" s="126"/>
+    </row>
+    <row r="345" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A345" s="256" t="s">
         <v>569</v>
       </c>
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345" spans="1:4" ht="66">
-      <c r="A345" s="87" t="s">
+      <c r="B345" s="142"/>
+      <c r="C345" s="126" t="s">
         <v>570</v>
       </c>
-      <c r="B345" s="61"/>
-      <c r="C345" s="2" t="s">
+      <c r="D345" s="126"/>
+    </row>
+    <row r="346" spans="1:4" ht="26.4">
+      <c r="A346" s="80" t="s">
         <v>571</v>
       </c>
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="1:4" ht="26.4">
-      <c r="A346" s="87" t="s">
+      <c r="B346" s="55"/>
+      <c r="C346" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B346" s="61"/>
-      <c r="C346" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="D346" s="2"/>
     </row>
     <row r="347" spans="1:4" ht="13.2">
-      <c r="A347" s="91"/>
-      <c r="B347" s="61"/>
+      <c r="A347" s="84"/>
+      <c r="B347" s="55"/>
       <c r="C347" s="12"/>
       <c r="D347" s="2"/>
     </row>
     <row r="348" spans="1:4" ht="22.8">
-      <c r="A348" s="88" t="s">
-        <v>574</v>
-      </c>
-      <c r="B348" s="61"/>
+      <c r="A348" s="81" t="s">
+        <v>573</v>
+      </c>
+      <c r="B348" s="55"/>
       <c r="C348" s="12"/>
       <c r="D348" s="2"/>
     </row>
     <row r="349" spans="1:4" ht="13.8">
-      <c r="A349" s="127"/>
-      <c r="B349" s="78" t="s">
-        <v>575</v>
+      <c r="A349" s="117"/>
+      <c r="B349" s="71" t="s">
+        <v>574</v>
       </c>
       <c r="C349" s="12"/>
       <c r="D349" s="2"/>
     </row>
     <row r="350" spans="1:4" ht="15">
-      <c r="A350" s="104"/>
-      <c r="B350" s="78"/>
-      <c r="C350" s="46"/>
+      <c r="A350" s="97"/>
+      <c r="B350" s="71"/>
+      <c r="C350" s="44"/>
       <c r="D350" s="2"/>
     </row>
-    <row r="351" spans="1:4" ht="165">
-      <c r="A351" s="102" t="s">
+    <row r="351" spans="1:4" s="128" customFormat="1" ht="165">
+      <c r="A351" s="257" t="s">
+        <v>575</v>
+      </c>
+      <c r="B351" s="258"/>
+      <c r="C351" s="259" t="s">
         <v>576</v>
       </c>
-      <c r="B351" s="78"/>
-      <c r="C351" s="47" t="s">
+      <c r="D351" s="126"/>
+    </row>
+    <row r="352" spans="1:4" s="128" customFormat="1" ht="225">
+      <c r="A352" s="257" t="s">
         <v>577</v>
       </c>
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="1:4" ht="225">
-      <c r="A352" s="102" t="s">
+      <c r="B352" s="258"/>
+      <c r="C352" s="260" t="s">
         <v>578</v>
       </c>
-      <c r="B352" s="78"/>
-      <c r="C352" s="48" t="s">
+      <c r="D352" s="126"/>
+    </row>
+    <row r="353" spans="1:4" ht="105">
+      <c r="A353" s="118" t="s">
         <v>579</v>
       </c>
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="1:4" ht="105">
-      <c r="A353" s="128" t="s">
+      <c r="B353" s="71"/>
+      <c r="C353" s="45" t="s">
         <v>580</v>
       </c>
-      <c r="B353" s="78"/>
-      <c r="C353" s="48" t="s">
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354" spans="1:4" s="128" customFormat="1" ht="135">
+      <c r="A354" s="261" t="s">
         <v>581</v>
       </c>
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="1:4" ht="135">
-      <c r="A354" s="128" t="s">
+      <c r="B354" s="258"/>
+      <c r="C354" s="260" t="s">
         <v>582</v>
       </c>
-      <c r="B354" s="78"/>
-      <c r="C354" s="48" t="s">
+      <c r="D354" s="126"/>
+    </row>
+    <row r="355" spans="1:4" s="128" customFormat="1" ht="45">
+      <c r="A355" s="262" t="s">
         <v>583</v>
       </c>
-      <c r="D354" s="2"/>
-    </row>
-    <row r="355" spans="1:4" ht="45">
-      <c r="A355" s="104" t="s">
+      <c r="B355" s="258"/>
+      <c r="C355" s="263" t="s">
         <v>584</v>
       </c>
-      <c r="B355" s="78"/>
-      <c r="C355" s="49" t="s">
+      <c r="D355" s="126"/>
+    </row>
+    <row r="356" spans="1:4" s="128" customFormat="1" ht="15">
+      <c r="A356" s="262" t="s">
         <v>585</v>
       </c>
-      <c r="D355" s="2"/>
-    </row>
-    <row r="356" spans="1:4" ht="15">
-      <c r="A356" s="104" t="s">
+      <c r="B356" s="258"/>
+      <c r="C356" s="264" t="s">
         <v>586</v>
       </c>
-      <c r="B356" s="78"/>
-      <c r="C356" s="50" t="s">
+      <c r="D356" s="126"/>
+    </row>
+    <row r="357" spans="1:4" s="128" customFormat="1" ht="15">
+      <c r="A357" s="261" t="s">
         <v>587</v>
       </c>
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357" spans="1:4" ht="15">
-      <c r="A357" s="128" t="s">
+      <c r="B357" s="258"/>
+      <c r="C357" s="264" t="s">
         <v>588</v>
       </c>
-      <c r="B357" s="78"/>
-      <c r="C357" s="50" t="s">
+      <c r="D357" s="126"/>
+    </row>
+    <row r="358" spans="1:4" s="128" customFormat="1" ht="96.6">
+      <c r="A358" s="265" t="s">
         <v>589</v>
       </c>
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" spans="1:4" ht="96.6">
-      <c r="A358" s="129" t="s">
+      <c r="B358" s="258"/>
+      <c r="C358" s="266" t="s">
         <v>590</v>
       </c>
-      <c r="B358" s="78"/>
-      <c r="C358" s="51" t="s">
+      <c r="D358" s="126"/>
+    </row>
+    <row r="359" spans="1:4" s="128" customFormat="1" ht="41.4">
+      <c r="A359" s="265" t="s">
         <v>591</v>
       </c>
-      <c r="D358" s="2"/>
-    </row>
-    <row r="359" spans="1:4" ht="41.4">
-      <c r="A359" s="129" t="s">
+      <c r="B359" s="258"/>
+      <c r="C359" s="266" t="s">
         <v>592</v>
       </c>
-      <c r="B359" s="78"/>
-      <c r="C359" s="51" t="s">
+      <c r="D359" s="126"/>
+    </row>
+    <row r="360" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A360" s="141" t="s">
         <v>593</v>
       </c>
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360" spans="1:4" ht="66">
-      <c r="A360" s="95" t="s">
+      <c r="B360" s="258"/>
+      <c r="C360" s="233" t="s">
         <v>594</v>
       </c>
-      <c r="B360" s="78"/>
-      <c r="C360" s="41" t="s">
+      <c r="D360" s="126"/>
+    </row>
+    <row r="361" spans="1:4" s="128" customFormat="1" ht="13.8">
+      <c r="A361" s="267" t="s">
         <v>595</v>
       </c>
-      <c r="D360" s="2"/>
-    </row>
-    <row r="361" spans="1:4" ht="13.8">
-      <c r="A361" s="127" t="s">
+      <c r="B361" s="258"/>
+      <c r="C361" s="268" t="s">
         <v>596</v>
       </c>
-      <c r="B361" s="78"/>
-      <c r="C361" s="1" t="s">
+      <c r="D361" s="126"/>
+    </row>
+    <row r="362" spans="1:4" ht="237.6">
+      <c r="A362" s="117"/>
+      <c r="B362" s="71" t="s">
         <v>597</v>
       </c>
-      <c r="D361" s="2"/>
-    </row>
-    <row r="362" spans="1:4" ht="237.6">
-      <c r="A362" s="127"/>
-      <c r="B362" s="78" t="s">
+      <c r="C362" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:4" ht="158.4">
+      <c r="A363" s="117"/>
+      <c r="B363" s="71" t="s">
         <v>599</v>
       </c>
-      <c r="D362" s="2"/>
-    </row>
-    <row r="363" spans="1:4" ht="158.4">
-      <c r="A363" s="127"/>
-      <c r="B363" s="78" t="s">
+      <c r="C363" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="D363" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D363" s="2" t="s">
+    </row>
+    <row r="364" spans="1:4" ht="105.6">
+      <c r="A364" s="117"/>
+      <c r="B364" s="72" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" ht="105.6">
-      <c r="A364" s="127"/>
-      <c r="B364" s="79" t="s">
+      <c r="C364" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="C364" s="11" t="s">
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="1:4" ht="27.6">
+      <c r="A365" s="120"/>
+      <c r="B365" s="72" t="s">
         <v>604</v>
       </c>
-      <c r="D364" s="2"/>
-    </row>
-    <row r="365" spans="1:4" ht="27.6">
-      <c r="A365" s="130"/>
-      <c r="B365" s="79" t="s">
+      <c r="C365" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:4" ht="66">
+      <c r="A366" s="88" t="s">
         <v>606</v>
       </c>
-      <c r="D365" s="2"/>
-    </row>
-    <row r="366" spans="1:4" ht="66">
-      <c r="A366" s="95" t="s">
+      <c r="B366" s="71"/>
+      <c r="C366" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B366" s="78"/>
-      <c r="C366" s="2" t="s">
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:4" ht="52.8">
+      <c r="A367" s="121" t="s">
         <v>608</v>
       </c>
-      <c r="D366" s="2"/>
-    </row>
-    <row r="367" spans="1:4" ht="52.8">
-      <c r="A367" s="131" t="s">
+      <c r="B367" s="71"/>
+      <c r="C367" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B367" s="78"/>
-      <c r="C367" s="2" t="s">
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="1:4" s="128" customFormat="1" ht="39.6">
+      <c r="A368" s="141" t="s">
         <v>610</v>
       </c>
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="1:4" ht="39.6">
-      <c r="A368" s="95" t="s">
+      <c r="B368" s="258"/>
+      <c r="C368" s="126" t="s">
         <v>611</v>
       </c>
-      <c r="B368" s="78"/>
-      <c r="C368" s="2" t="s">
+      <c r="D368" s="126"/>
+    </row>
+    <row r="369" spans="1:4" s="128" customFormat="1" ht="52.8">
+      <c r="A369" s="141" t="s">
         <v>612</v>
       </c>
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369" spans="1:4" ht="52.8">
-      <c r="A369" s="95" t="s">
+      <c r="B369" s="258"/>
+      <c r="C369" s="126" t="s">
         <v>613</v>
       </c>
-      <c r="B369" s="78"/>
-      <c r="C369" s="2" t="s">
+      <c r="D369" s="126"/>
+    </row>
+    <row r="370" spans="1:4" s="128" customFormat="1" ht="105.6">
+      <c r="A370" s="269" t="s">
         <v>614</v>
       </c>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="1:4" ht="105.6">
-      <c r="A370" s="132" t="s">
+      <c r="B370" s="258"/>
+      <c r="C370" s="126" t="s">
         <v>615</v>
       </c>
-      <c r="B370" s="78"/>
-      <c r="C370" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D370" s="2"/>
+      <c r="D370" s="126"/>
     </row>
     <row r="371" spans="1:4" ht="13.8">
-      <c r="A371" s="127"/>
-      <c r="B371" s="78"/>
+      <c r="A371" s="117"/>
+      <c r="B371" s="71"/>
       <c r="C371" s="12"/>
       <c r="D371" s="2"/>
     </row>
     <row r="372" spans="1:4" ht="13.8">
-      <c r="A372" s="127"/>
-      <c r="B372" s="78" t="s">
-        <v>617</v>
+      <c r="A372" s="117"/>
+      <c r="B372" s="71" t="s">
+        <v>616</v>
       </c>
       <c r="C372" s="12"/>
       <c r="D372" s="2"/>
     </row>
     <row r="373" spans="1:4" ht="52.8">
-      <c r="A373" s="129" t="s">
+      <c r="A373" s="119" t="s">
+        <v>617</v>
+      </c>
+      <c r="B373" s="55"/>
+      <c r="C373" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="B373" s="61"/>
-      <c r="C373" s="32" t="s">
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A374" s="139" t="s">
         <v>619</v>
       </c>
-      <c r="D373" s="2"/>
-    </row>
-    <row r="374" spans="1:4" ht="66">
-      <c r="A374" s="82" t="s">
+      <c r="B374" s="142"/>
+      <c r="C374" s="126" t="s">
         <v>620</v>
       </c>
-      <c r="B374" s="61"/>
-      <c r="C374" s="2" t="s">
+      <c r="D374" s="126"/>
+    </row>
+    <row r="375" spans="1:4" ht="26.4">
+      <c r="A375" s="75" t="s">
         <v>621</v>
       </c>
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="1:4" ht="26.4">
-      <c r="A375" s="82" t="s">
+      <c r="B375" s="55"/>
+      <c r="C375" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B375" s="61"/>
-      <c r="C375" s="2" t="s">
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="1:4" ht="13.2">
+      <c r="A376" s="84"/>
+      <c r="B376" s="55"/>
+      <c r="C376" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="1:4" ht="13.2">
-      <c r="A376" s="91"/>
-      <c r="B376" s="61"/>
-      <c r="C376" s="1" t="s">
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A377" s="239" t="s">
         <v>624</v>
       </c>
-      <c r="D376" s="2"/>
-    </row>
-    <row r="377" spans="1:4" ht="66">
-      <c r="A377" s="98" t="s">
+      <c r="B377" s="142"/>
+      <c r="C377" s="126" t="s">
         <v>625</v>
       </c>
-      <c r="B377" s="61"/>
-      <c r="C377" s="2" t="s">
+      <c r="D377" s="126"/>
+    </row>
+    <row r="378" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A378" s="141" t="s">
         <v>626</v>
       </c>
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378" spans="1:4" ht="13.2">
-      <c r="A378" s="95" t="s">
+      <c r="B378" s="142"/>
+      <c r="C378" s="270" t="s">
         <v>627</v>
       </c>
-      <c r="B378" s="61"/>
-      <c r="C378" s="19" t="s">
+      <c r="D378" s="126"/>
+    </row>
+    <row r="379" spans="1:4" ht="17.399999999999999">
+      <c r="A379" s="78" t="s">
         <v>628</v>
       </c>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="1:4" ht="17.399999999999999">
-      <c r="A379" s="85" t="s">
+      <c r="B379" s="55"/>
+      <c r="C379" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B379" s="61"/>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A380" s="239" t="s">
         <v>630</v>
       </c>
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380" spans="1:4" ht="26.4">
-      <c r="A380" s="86" t="s">
+      <c r="B380" s="142"/>
+      <c r="C380" s="268" t="s">
         <v>631</v>
       </c>
-      <c r="B380" s="61"/>
-      <c r="C380" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D380" s="2"/>
+      <c r="D380" s="126"/>
     </row>
     <row r="381" spans="1:4" ht="17.399999999999999">
-      <c r="A381" s="85"/>
-      <c r="B381" s="61"/>
+      <c r="A381" s="78"/>
+      <c r="B381" s="55"/>
       <c r="C381" s="1"/>
       <c r="D381" s="2"/>
     </row>
     <row r="382" spans="1:4" ht="17.399999999999999">
-      <c r="A382" s="85"/>
-      <c r="B382" s="61"/>
+      <c r="A382" s="78"/>
+      <c r="B382" s="55"/>
       <c r="C382" s="1"/>
       <c r="D382" s="2"/>
     </row>
     <row r="383" spans="1:4" ht="17.399999999999999">
-      <c r="A383" s="85"/>
-      <c r="B383" s="61"/>
+      <c r="A383" s="78"/>
+      <c r="B383" s="55"/>
       <c r="C383" s="1"/>
       <c r="D383" s="2"/>
     </row>
     <row r="384" spans="1:4" ht="17.399999999999999">
-      <c r="A384" s="85"/>
-      <c r="B384" s="61"/>
+      <c r="A384" s="78"/>
+      <c r="B384" s="55"/>
       <c r="C384" s="1"/>
       <c r="D384" s="2"/>
     </row>
     <row r="385" spans="1:4" ht="13.2">
-      <c r="A385" s="91"/>
-      <c r="B385" s="61"/>
+      <c r="A385" s="84"/>
+      <c r="B385" s="55"/>
       <c r="C385" s="12"/>
       <c r="D385" s="2"/>
     </row>
     <row r="386" spans="1:4" ht="13.2">
-      <c r="A386" s="91"/>
-      <c r="B386" s="66" t="s">
-        <v>633</v>
+      <c r="A386" s="84"/>
+      <c r="B386" s="60" t="s">
+        <v>632</v>
       </c>
       <c r="C386" s="12"/>
       <c r="D386" s="2"/>
     </row>
     <row r="387" spans="1:4" ht="52.8">
-      <c r="A387" s="98" t="s">
+      <c r="A387" s="91" t="s">
+        <v>633</v>
+      </c>
+      <c r="B387" s="55"/>
+      <c r="C387" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B387" s="61"/>
-      <c r="C387" s="6" t="s">
-        <v>635</v>
-      </c>
       <c r="D387" s="2"/>
     </row>
     <row r="388" spans="1:4" ht="13.2">
-      <c r="A388" s="91"/>
-      <c r="B388" s="61"/>
+      <c r="A388" s="84"/>
+      <c r="B388" s="55"/>
       <c r="C388" s="12"/>
       <c r="D388" s="2"/>
     </row>
     <row r="389" spans="1:4" ht="13.2">
-      <c r="A389" s="91"/>
-      <c r="B389" s="61"/>
+      <c r="A389" s="84"/>
+      <c r="B389" s="55"/>
       <c r="C389" s="12"/>
       <c r="D389" s="2"/>
     </row>
     <row r="390" spans="1:4" ht="13.2">
-      <c r="A390" s="91"/>
-      <c r="B390" s="61"/>
+      <c r="A390" s="84"/>
+      <c r="B390" s="55"/>
       <c r="C390" s="12"/>
       <c r="D390" s="2"/>
     </row>
     <row r="391" spans="1:4" ht="13.2">
-      <c r="A391" s="91"/>
-      <c r="B391" s="61"/>
+      <c r="A391" s="84"/>
+      <c r="B391" s="55"/>
       <c r="C391" s="12"/>
       <c r="D391" s="2"/>
     </row>
     <row r="392" spans="1:4" ht="13.8">
-      <c r="A392" s="91"/>
-      <c r="B392" s="78" t="s">
-        <v>636</v>
+      <c r="A392" s="84"/>
+      <c r="B392" s="71" t="s">
+        <v>635</v>
       </c>
       <c r="C392" s="12"/>
       <c r="D392" s="2"/>
     </row>
     <row r="393" spans="1:4" ht="52.8">
-      <c r="A393" s="95" t="s">
+      <c r="A393" s="88" t="s">
+        <v>636</v>
+      </c>
+      <c r="B393" s="55"/>
+      <c r="C393" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B393" s="61"/>
-      <c r="C393" s="5" t="s">
-        <v>638</v>
-      </c>
       <c r="D393" s="2"/>
     </row>
     <row r="394" spans="1:4" ht="13.2">
-      <c r="A394" s="91"/>
-      <c r="B394" s="61"/>
+      <c r="A394" s="84"/>
+      <c r="B394" s="55"/>
       <c r="C394" s="12"/>
       <c r="D394" s="2"/>
     </row>
     <row r="395" spans="1:4" ht="13.2">
-      <c r="A395" s="91"/>
-      <c r="B395" s="66" t="s">
-        <v>639</v>
+      <c r="A395" s="84"/>
+      <c r="B395" s="60" t="s">
+        <v>638</v>
       </c>
       <c r="C395" s="12"/>
       <c r="D395" s="2"/>
     </row>
     <row r="396" spans="1:4" ht="39.6">
-      <c r="A396" s="86" t="s">
+      <c r="A396" s="79" t="s">
+        <v>639</v>
+      </c>
+      <c r="B396" s="55"/>
+      <c r="C396" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B396" s="61"/>
-      <c r="C396" s="2" t="s">
+      <c r="D396" s="2"/>
+    </row>
+    <row r="397" spans="1:4" ht="39.6">
+      <c r="A397" s="91" t="s">
         <v>641</v>
       </c>
-      <c r="D396" s="2"/>
-    </row>
-    <row r="397" spans="1:4" ht="39.6">
-      <c r="A397" s="98" t="s">
+      <c r="B397" s="55"/>
+      <c r="C397" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B397" s="61"/>
-      <c r="C397" s="2" t="s">
+      <c r="D397" s="2"/>
+    </row>
+    <row r="398" spans="1:4" ht="66">
+      <c r="A398" s="75" t="s">
         <v>643</v>
       </c>
-      <c r="D397" s="2"/>
-    </row>
-    <row r="398" spans="1:4" ht="66">
-      <c r="A398" s="82" t="s">
+      <c r="B398" s="55"/>
+      <c r="C398" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B398" s="61"/>
-      <c r="C398" s="2" t="s">
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" spans="1:4" ht="13.2">
+      <c r="A399" s="75" t="s">
         <v>645</v>
       </c>
-      <c r="D398" s="2"/>
-    </row>
-    <row r="399" spans="1:4" ht="13.2">
-      <c r="A399" s="82" t="s">
+      <c r="B399" s="55"/>
+      <c r="C399" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B399" s="61"/>
-      <c r="C399" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="D399" s="2"/>
     </row>
     <row r="400" spans="1:4" ht="13.2">
-      <c r="A400" s="82"/>
-      <c r="B400" s="61"/>
+      <c r="A400" s="75"/>
+      <c r="B400" s="55"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
     </row>
     <row r="401" spans="1:4" ht="13.2">
-      <c r="A401" s="82"/>
-      <c r="B401" s="61"/>
+      <c r="A401" s="75"/>
+      <c r="B401" s="55"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
     </row>
     <row r="402" spans="1:4" ht="13.2">
-      <c r="A402" s="91"/>
-      <c r="B402" s="61"/>
+      <c r="A402" s="84"/>
+      <c r="B402" s="55"/>
       <c r="C402" s="12"/>
       <c r="D402" s="2"/>
     </row>
     <row r="403" spans="1:4" ht="13.2">
-      <c r="A403" s="91"/>
-      <c r="B403" s="66" t="s">
-        <v>648</v>
+      <c r="A403" s="84"/>
+      <c r="B403" s="60" t="s">
+        <v>647</v>
       </c>
       <c r="C403" s="12"/>
       <c r="D403" s="2"/>
     </row>
     <row r="404" spans="1:4" ht="26.4">
-      <c r="A404" s="98" t="s">
+      <c r="A404" s="91" t="s">
+        <v>648</v>
+      </c>
+      <c r="B404" s="55"/>
+      <c r="C404" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B404" s="61"/>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405" spans="1:4" ht="52.8">
+      <c r="A405" s="75" t="s">
         <v>650</v>
       </c>
-      <c r="D404" s="2"/>
-    </row>
-    <row r="405" spans="1:4" ht="52.8">
-      <c r="A405" s="82" t="s">
+      <c r="B405" s="55"/>
+      <c r="C405" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B405" s="61"/>
-      <c r="C405" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="D405" s="2"/>
     </row>
     <row r="406" spans="1:4" ht="13.2">
-      <c r="A406" s="91"/>
-      <c r="B406" s="61"/>
+      <c r="A406" s="84"/>
+      <c r="B406" s="55"/>
       <c r="C406" s="12"/>
       <c r="D406" s="2"/>
     </row>
     <row r="407" spans="1:4" ht="13.2">
-      <c r="A407" s="91"/>
-      <c r="B407" s="66" t="s">
-        <v>653</v>
+      <c r="A407" s="84"/>
+      <c r="B407" s="60" t="s">
+        <v>652</v>
       </c>
       <c r="C407" s="12"/>
       <c r="D407" s="2"/>
     </row>
     <row r="408" spans="1:4" ht="211.2">
-      <c r="A408" s="86" t="s">
+      <c r="A408" s="79" t="s">
+        <v>653</v>
+      </c>
+      <c r="B408" s="55"/>
+      <c r="C408" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B408" s="61"/>
-      <c r="C408" s="2" t="s">
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4" ht="13.2">
+      <c r="A409" s="79" t="s">
         <v>655</v>
       </c>
-      <c r="D408" s="2"/>
-    </row>
-    <row r="409" spans="1:4" ht="13.2">
-      <c r="A409" s="86" t="s">
+      <c r="B409" s="55"/>
+      <c r="C409" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B409" s="61"/>
-      <c r="C409" s="1" t="s">
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A410" s="143" t="s">
         <v>657</v>
       </c>
-      <c r="D409" s="2"/>
-    </row>
-    <row r="410" spans="1:4" ht="26.4">
-      <c r="A410" s="98" t="s">
+      <c r="B410" s="142"/>
+      <c r="C410" s="268" t="s">
         <v>658</v>
       </c>
-      <c r="B410" s="61"/>
-      <c r="C410" s="1" t="s">
+      <c r="D410" s="126"/>
+    </row>
+    <row r="411" spans="1:4" ht="13.2">
+      <c r="A411" s="88" t="s">
         <v>659</v>
       </c>
-      <c r="D410" s="2"/>
-    </row>
-    <row r="411" spans="1:4" ht="13.2">
-      <c r="A411" s="95" t="s">
+      <c r="B411" s="55"/>
+      <c r="C411" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B411" s="61"/>
-      <c r="C411" s="1" t="s">
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="1:4" ht="53.4">
+      <c r="A412" s="116" t="s">
         <v>661</v>
       </c>
-      <c r="D411" s="2"/>
-    </row>
-    <row r="412" spans="1:4" ht="53.4">
-      <c r="A412" s="125" t="s">
+      <c r="B412" s="61"/>
+      <c r="C412" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="B412" s="67"/>
-      <c r="C412" s="13" t="s">
+      <c r="D412" s="2"/>
+    </row>
+    <row r="413" spans="1:4" ht="39.6">
+      <c r="A413" s="122" t="s">
         <v>663</v>
       </c>
-      <c r="D412" s="2"/>
-    </row>
-    <row r="413" spans="1:4" ht="39.6">
-      <c r="A413" s="133" t="s">
+      <c r="B413" s="61"/>
+      <c r="C413" s="38" t="s">
         <v>664</v>
       </c>
-      <c r="B413" s="67"/>
-      <c r="C413" s="39" t="s">
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="1:4" s="128" customFormat="1" ht="66">
+      <c r="A414" s="141" t="s">
         <v>665</v>
       </c>
-      <c r="D413" s="2"/>
-    </row>
-    <row r="414" spans="1:4" ht="66">
-      <c r="A414" s="95" t="s">
+      <c r="B414" s="228"/>
+      <c r="C414" s="229" t="s">
         <v>666</v>
       </c>
-      <c r="B414" s="67"/>
-      <c r="C414" s="39" t="s">
+      <c r="D414" s="126"/>
+    </row>
+    <row r="415" spans="1:4" s="128" customFormat="1" ht="92.4">
+      <c r="A415" s="143" t="s">
         <v>667</v>
       </c>
-      <c r="D414" s="2"/>
-    </row>
-    <row r="415" spans="1:4" ht="92.4">
-      <c r="A415" s="98" t="s">
+      <c r="B415" s="228"/>
+      <c r="C415" s="229" t="s">
         <v>668</v>
       </c>
-      <c r="B415" s="67"/>
-      <c r="C415" s="39" t="s">
+      <c r="D415" s="126"/>
+    </row>
+    <row r="416" spans="1:4" s="128" customFormat="1" ht="26.4">
+      <c r="A416" s="239" t="s">
         <v>669</v>
       </c>
-      <c r="D415" s="2"/>
-    </row>
-    <row r="416" spans="1:4" ht="26.4">
-      <c r="A416" s="86" t="s">
+      <c r="B416" s="228"/>
+      <c r="C416" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="B416" s="67"/>
-      <c r="C416" s="39" t="s">
+      <c r="D416" s="126"/>
+    </row>
+    <row r="417" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A417" s="239" t="s">
         <v>671</v>
       </c>
-      <c r="D416" s="2"/>
-    </row>
-    <row r="417" spans="1:4" ht="13.2">
-      <c r="A417" s="86" t="s">
+      <c r="B417" s="228"/>
+      <c r="C417" s="229" t="s">
         <v>672</v>
       </c>
-      <c r="B417" s="67"/>
-      <c r="C417" s="39" t="s">
+      <c r="D417" s="126"/>
+    </row>
+    <row r="418" spans="1:4" s="128" customFormat="1" ht="13.2">
+      <c r="A418" s="271" t="s">
         <v>673</v>
       </c>
-      <c r="D417" s="2"/>
-    </row>
-    <row r="418" spans="1:4" ht="13.2">
-      <c r="A418" s="134" t="s">
+      <c r="B418" s="228"/>
+      <c r="C418" s="229" t="s">
         <v>674</v>
       </c>
-      <c r="B418" s="67"/>
-      <c r="C418" s="39" t="s">
+      <c r="D418" s="126"/>
+    </row>
+    <row r="419" spans="1:4" ht="132">
+      <c r="A419" s="123" t="s">
         <v>675</v>
       </c>
-      <c r="D418" s="2"/>
-    </row>
-    <row r="419" spans="1:4" ht="132">
-      <c r="A419" s="134" t="s">
+      <c r="B419" s="61"/>
+      <c r="C419" s="38" t="s">
         <v>676</v>
       </c>
-      <c r="B419" s="67"/>
-      <c r="C419" s="39" t="s">
-        <v>677</v>
-      </c>
       <c r="D419" s="2"/>
     </row>
     <row r="420" spans="1:4" ht="13.2">
-      <c r="A420" s="91"/>
-      <c r="B420" s="61"/>
+      <c r="A420" s="84"/>
+      <c r="B420" s="55"/>
       <c r="C420" s="12"/>
       <c r="D420" s="2"/>
     </row>
     <row r="421" spans="1:4" ht="13.2">
-      <c r="A421" s="91"/>
-      <c r="B421" s="66" t="s">
-        <v>678</v>
+      <c r="A421" s="84"/>
+      <c r="B421" s="60" t="s">
+        <v>677</v>
       </c>
       <c r="C421" s="12"/>
       <c r="D421" s="2"/>
     </row>
     <row r="422" spans="1:4" ht="52.8">
-      <c r="A422" s="95" t="s">
+      <c r="A422" s="88" t="s">
+        <v>678</v>
+      </c>
+      <c r="B422" s="55"/>
+      <c r="C422" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B422" s="61"/>
-      <c r="C422" s="2" t="s">
+      <c r="D422" s="2"/>
+    </row>
+    <row r="423" spans="1:4" ht="26.4">
+      <c r="A423" s="79" t="s">
         <v>680</v>
       </c>
-      <c r="D422" s="2"/>
-    </row>
-    <row r="423" spans="1:4" ht="26.4">
-      <c r="A423" s="86" t="s">
+      <c r="B423" s="55"/>
+      <c r="C423" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B423" s="61"/>
-      <c r="C423" s="2" t="s">
-        <v>682</v>
-      </c>
       <c r="D423" s="2"/>
     </row>
     <row r="424" spans="1:4" ht="13.2">
-      <c r="B424" s="61"/>
+      <c r="B424" s="55"/>
       <c r="C424" s="12"/>
       <c r="D424" s="2"/>
     </row>
     <row r="425" spans="1:4" ht="13.2">
-      <c r="A425" s="91"/>
-      <c r="B425" s="61"/>
+      <c r="A425" s="84"/>
+      <c r="B425" s="55"/>
       <c r="C425" s="12"/>
       <c r="D425" s="2"/>
     </row>
     <row r="426" spans="1:4" ht="13.2">
-      <c r="A426" s="91"/>
-      <c r="B426" s="66" t="s">
-        <v>683</v>
+      <c r="A426" s="84"/>
+      <c r="B426" s="60" t="s">
+        <v>682</v>
       </c>
       <c r="C426" s="12"/>
       <c r="D426" s="2"/>
     </row>
     <row r="427" spans="1:4" ht="66">
-      <c r="A427" s="98" t="s">
+      <c r="A427" s="91" t="s">
+        <v>683</v>
+      </c>
+      <c r="B427" s="55"/>
+      <c r="C427" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B427" s="61"/>
-      <c r="C427" s="2" t="s">
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428" spans="1:4" ht="26.4">
+      <c r="A428" s="79" t="s">
+        <v>680</v>
+      </c>
+      <c r="B428" s="55"/>
+      <c r="C428" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="D427" s="2"/>
-    </row>
-    <row r="428" spans="1:4" ht="26.4">
-      <c r="A428" s="86" t="s">
-        <v>681</v>
-      </c>
-      <c r="B428" s="61"/>
-      <c r="C428" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="D428" s="2"/>
     </row>
     <row r="429" spans="1:4" ht="17.399999999999999">
-      <c r="A429" s="85"/>
-      <c r="B429" s="61"/>
+      <c r="A429" s="78"/>
+      <c r="B429" s="55"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
     </row>
     <row r="430" spans="1:4" ht="13.2">
-      <c r="A430" s="91"/>
-      <c r="B430" s="61"/>
+      <c r="A430" s="84"/>
+      <c r="B430" s="55"/>
       <c r="C430" s="12"/>
       <c r="D430" s="2"/>
     </row>
     <row r="431" spans="1:4" ht="13.2">
-      <c r="A431" s="91"/>
-      <c r="B431" s="80" t="s">
-        <v>687</v>
+      <c r="A431" s="84"/>
+      <c r="B431" s="73" t="s">
+        <v>686</v>
       </c>
       <c r="C431" s="12"/>
       <c r="D431" s="2"/>
     </row>
     <row r="432" spans="1:4" ht="13.2">
-      <c r="A432" s="82" t="s">
+      <c r="A432" s="75" t="s">
+        <v>687</v>
+      </c>
+      <c r="B432" s="55"/>
+      <c r="C432" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="B432" s="61"/>
-      <c r="C432" s="18" t="s">
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433" spans="1:4" ht="13.2">
+      <c r="A433" s="84"/>
+      <c r="B433" s="55"/>
+      <c r="C433" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="D432" s="2"/>
-    </row>
-    <row r="433" spans="1:4" ht="13.2">
-      <c r="A433" s="91"/>
-      <c r="B433" s="61"/>
-      <c r="C433" s="18" t="s">
-        <v>690</v>
-      </c>
       <c r="D433" s="2"/>
     </row>
     <row r="434" spans="1:4" ht="13.2">
-      <c r="A434" s="91"/>
-      <c r="B434" s="61"/>
+      <c r="A434" s="84"/>
+      <c r="B434" s="55"/>
       <c r="C434" s="12"/>
       <c r="D434" s="2"/>
     </row>
     <row r="435" spans="1:4" ht="13.2">
-      <c r="A435" s="91"/>
-      <c r="B435" s="66" t="s">
-        <v>691</v>
+      <c r="A435" s="84"/>
+      <c r="B435" s="60" t="s">
+        <v>690</v>
       </c>
       <c r="C435" s="12"/>
       <c r="D435" s="2"/>
     </row>
     <row r="436" spans="1:4" ht="27">
-      <c r="A436" s="85" t="s">
+      <c r="A436" s="78" t="s">
+        <v>691</v>
+      </c>
+      <c r="B436" s="60"/>
+      <c r="C436" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B436" s="66"/>
-      <c r="C436" s="2" t="s">
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" spans="1:4" ht="79.2">
+      <c r="A437" s="75" t="s">
         <v>693</v>
       </c>
-      <c r="D436" s="2"/>
-    </row>
-    <row r="437" spans="1:4" ht="79.2">
-      <c r="A437" s="82" t="s">
+      <c r="B437" s="55"/>
+      <c r="C437" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B437" s="61"/>
-      <c r="C437" s="2" t="s">
-        <v>695</v>
-      </c>
       <c r="D437" s="2"/>
     </row>
     <row r="438" spans="1:4" ht="13.2">
-      <c r="A438" s="91"/>
-      <c r="B438" s="61"/>
+      <c r="A438" s="84"/>
+      <c r="B438" s="55"/>
       <c r="C438" s="12"/>
       <c r="D438" s="2"/>
     </row>
     <row r="439" spans="1:4" ht="13.2">
-      <c r="A439" s="91"/>
-      <c r="B439" s="66" t="s">
-        <v>696</v>
+      <c r="A439" s="84"/>
+      <c r="B439" s="60" t="s">
+        <v>695</v>
       </c>
       <c r="C439" s="12"/>
       <c r="D439" s="2"/>
     </row>
     <row r="440" spans="1:4" ht="52.8">
-      <c r="A440" s="89" t="s">
+      <c r="A440" s="82" t="s">
+        <v>696</v>
+      </c>
+      <c r="B440" s="55"/>
+      <c r="C440" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B440" s="61"/>
-      <c r="C440" s="2" t="s">
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" spans="1:4" ht="26.4">
+      <c r="A441" s="84"/>
+      <c r="B441" s="74" t="s">
         <v>698</v>
       </c>
-      <c r="D440" s="2"/>
-    </row>
-    <row r="441" spans="1:4" ht="26.4">
-      <c r="A441" s="91"/>
-      <c r="B441" s="81" t="s">
+      <c r="C441" s="46" t="s">
         <v>699</v>
       </c>
-      <c r="C441" s="52" t="s">
+      <c r="D441" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D441" s="2" t="s">
+    </row>
+    <row r="442" spans="1:4" ht="13.2">
+      <c r="A442" s="84"/>
+      <c r="B442" s="60" t="s">
         <v>701</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" ht="13.2">
-      <c r="A442" s="91"/>
-      <c r="B442" s="66" t="s">
-        <v>702</v>
       </c>
       <c r="C442" s="12"/>
       <c r="D442" s="2"/>
     </row>
     <row r="443" spans="1:4" ht="41.4">
-      <c r="A443" s="135" t="s">
+      <c r="A443" s="124" t="s">
+        <v>702</v>
+      </c>
+      <c r="C443" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="C443" s="8" t="s">
-        <v>704</v>
-      </c>
       <c r="D443" s="2"/>
     </row>
     <row r="444" spans="1:4" ht="13.2">
-      <c r="A444" s="91"/>
-      <c r="B444" s="61"/>
+      <c r="A444" s="84"/>
+      <c r="B444" s="55"/>
       <c r="C444" s="12"/>
       <c r="D444" s="2"/>
     </row>
     <row r="445" spans="1:4" ht="13.2">
-      <c r="A445" s="91"/>
-      <c r="B445" s="61"/>
+      <c r="A445" s="84"/>
+      <c r="B445" s="55"/>
       <c r="C445" s="12"/>
       <c r="D445" s="2"/>
     </row>
     <row r="446" spans="1:4" ht="13.2">
-      <c r="A446" s="91"/>
-      <c r="B446" s="61"/>
+      <c r="A446" s="84"/>
+      <c r="B446" s="55"/>
       <c r="C446" s="12"/>
       <c r="D446" s="2"/>
     </row>
     <row r="447" spans="1:4" ht="13.2">
-      <c r="A447" s="91"/>
-      <c r="B447" s="61"/>
+      <c r="A447" s="84"/>
+      <c r="B447" s="55"/>
       <c r="C447" s="12"/>
       <c r="D447" s="2"/>
     </row>
     <row r="448" spans="1:4" ht="13.2">
-      <c r="A448" s="91"/>
-      <c r="B448" s="61"/>
+      <c r="A448" s="84"/>
+      <c r="B448" s="55"/>
       <c r="C448" s="12"/>
       <c r="D448" s="2"/>
     </row>
     <row r="449" spans="1:4" ht="13.2">
-      <c r="A449" s="91"/>
-      <c r="B449" s="61"/>
+      <c r="A449" s="84"/>
+      <c r="B449" s="55"/>
       <c r="C449" s="12"/>
       <c r="D449" s="2"/>
     </row>
     <row r="450" spans="1:4" ht="13.2">
-      <c r="A450" s="91"/>
-      <c r="B450" s="61"/>
+      <c r="A450" s="84"/>
+      <c r="B450" s="55"/>
       <c r="C450" s="12"/>
       <c r="D450" s="2"/>
     </row>
     <row r="451" spans="1:4" ht="13.2">
-      <c r="A451" s="91"/>
-      <c r="B451" s="61"/>
+      <c r="A451" s="84"/>
+      <c r="B451" s="55"/>
       <c r="C451" s="12"/>
       <c r="D451" s="2"/>
     </row>
     <row r="452" spans="1:4" ht="13.2">
-      <c r="A452" s="91"/>
-      <c r="B452" s="61"/>
+      <c r="A452" s="84"/>
+      <c r="B452" s="55"/>
       <c r="C452" s="12"/>
       <c r="D452" s="2"/>
     </row>
     <row r="453" spans="1:4" ht="13.2">
-      <c r="A453" s="91"/>
-      <c r="B453" s="61"/>
+      <c r="A453" s="84"/>
+      <c r="B453" s="55"/>
       <c r="C453" s="12"/>
       <c r="D453" s="2"/>
     </row>
     <row r="454" spans="1:4" ht="13.2">
-      <c r="A454" s="91"/>
-      <c r="B454" s="61"/>
+      <c r="A454" s="84"/>
+      <c r="B454" s="55"/>
       <c r="C454" s="12"/>
       <c r="D454" s="2"/>
     </row>
